--- a/DOM_Banner/output/dept0713/Sairam Parthasarathy_2023.xlsx
+++ b/DOM_Banner/output/dept0713/Sairam Parthasarathy_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Harvard Medical School, Boston, Massachusetts; Massachusetts General Hospital, Boston; University of Colorado Anschutz Medical Campus, Aurora; Brigham and Women’s Hospital, Boston, Massachusetts; University of Alabama at Birmingham; Brigham and Women’s Hospital, Boston, Massachusetts; Harvard Medical School, Boston, Massachusetts; Case Western Reserve University, Cleveland, Ohio; Patient-Led Research Collaborative, Calabasas, California; Icahn School of Medicine at Mount Sinai, New York, New York; The University of Arizona College of Medicine, Tucson; Stanford University School of Medicine, Stanford, California; Emory University School of Medicine, Atlanta, Georgia; Massachusetts General Hospital, Boston; Massachusetts General Hospital, Boston; Massachusetts General Hospital, Boston; Mass General Brigham, Boston, Massachusetts; New York University Grossman School of Medicine, New York; Harvard Medical School, Boston, Massachusetts; Massachusetts General Hospital, Boston; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4378212766</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Development of a Definition of Postacute Sequelae of SARS-CoV-2 Infection</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-06-13</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>JAMA</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>American Medical Association</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1001/jama.2023.8823</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>126</t>
-        </is>
-      </c>
       <c r="M2" t="inlineStr">
         <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37278994</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1001/jama.2023.8823</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Centre for the AIDS Programme of Research in South Africa (CAPRISA), South African Medical Research Council (SAMRC) - CAPRISA HIV-TB Pathogenesis and Treatment Research Unit, Durban, South Africa; Department of Pulmonology and Critical Care, Division of Internal Medicine, School Clinical Medicine, Nelson R Mandela School of Medicine, University of KwaZulu-Natal, Durban, South Africa; Long COVID Taskforce, The Global Virus Network, Baltimore, MD, United States; Centre for the AIDS Programme of Research in South Africa (CAPRISA), South African Medical Research Council (SAMRC) - CAPRISA HIV-TB Pathogenesis and Treatment Research Unit, Durban, South Africa; Centre for the AIDS Programme of Research in South Africa (CAPRISA), South African Medical Research Council (SAMRC) - CAPRISA HIV-TB Pathogenesis and Treatment Research Unit, Durban, South Africa; Centre for the AIDS Programme of Research in South Africa (CAPRISA), South African Medical Research Council (SAMRC) - CAPRISA HIV-TB Pathogenesis and Treatment Research Unit, Durban, South Africa; Institute of Human Virology, University of Maryland School of Medicine, Baltimore, MD, United States; Long COVID Taskforce, The Global Virus Network, Baltimore, MD, United States; Department of Molecular Medicine, University of Padova, Padova, Italy; Long COVID Taskforce, The Global Virus Network, Baltimore, MD, United States; Long COVID Taskforce, The Global Virus Network, Baltimore, MD, United States; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine and University of Arizona College of Medicine-Tucson, Tucson, AZ, United States; Division of Clinical Microbiology, Karolinska Institutet, Stockholm, Sweden; Long COVID Taskforce, The Global Virus Network, Baltimore, MD, United States; Department of Immunobiology and the University of Arizona Center on Aging, University of Arizona College of Medicine-Tucson, Tucson, AZ, United States; Long COVID Taskforce, The Global Virus Network, Baltimore, MD, United States</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4366588907</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Long COVID: a review and proposed visualization of the complexity of long COVID</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-04-20</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Frontiers in Immunology</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Frontiers Media</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fimmu.2023.1117464</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37153597</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fimmu.2023.1117464</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,39 +626,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4362469800</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Causes, Consequences, and Treatments of Sleep and Circadian Disruption in the ICU: An Official American Thoracic Society Research Statement</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-04-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>American Journal of Respiratory and Critical Care Medicine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>American Thoracic Society</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/rccm.202301-0184st</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -651,35 +666,40 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36999950</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/rccm.202301-0184st</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,39 +713,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4318753911</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Moving toward Equitable Care for Sleep Apnea in the United States: Positive Airway Pressure Adherence Thresholds: An Official American Thoracic Society Policy Statement</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-02-01</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>American Journal of Respiratory and Critical Care Medicine</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>American Thoracic Society</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/rccm.202210-1846st</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -733,35 +753,40 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36722719</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/rccm.202210-1846st</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Center for Health Equity Research, Northern Arizona University, Flagstaff, AZ, United States; Center for Health Equity Research, Northern Arizona University, Flagstaff, AZ, United States; ; Center for Health Equity Research, Northern Arizona University, Flagstaff, AZ, United States; Center for Health Equity Research, Northern Arizona University, Flagstaff, AZ, United States; Department of Chemistry and Biochemistry, Northern Arizona University, Flagstaff, AZ, United States; Southwest Interdisciplinary Research Center, School of Social Work, Arizona State University, Phoenix, AZ, United States; ; ; ; Center for Health Equity Research, Northern Arizona University, Flagstaff, AZ, United States; Southwest Interdisciplinary Research Center, School of Social Work, Arizona State University, Phoenix, AZ, United States; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine, Department of Medicine, University of Arizona, Tucson, AZ, United States; Center for Health Equity Research, Northern Arizona University, Flagstaff, AZ, United States</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4319018636</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Community Engagement Alliance (CEAL) Against COVID-19 Disparities: Academic-community partnership to support workforce capacity building among Arizona community health workers</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2023-02-02</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Frontiers in Public Health</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Frontiers Media</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fpubh.2023.1072808</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36817902</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fpubh.2023.1072808</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,39 +887,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Division of Pulmonary, Allergy, Critical Care Medicine and Sleep Medicine, University of Arizona College of Medicine, Tucson, USA; UAHS Center for Sleep and Circadian Sciences, University of Arizona, USA; Division of Cardiology and Heart Research, University of Rochester Medical Center, USA; UAHS Center for Sleep and Circadian Sciences, University of Arizona, USA; UAHS Center for Sleep and Circadian Sciences, University of Arizona, USA; Division of Pulmonary, Allergy, Critical Care Medicine and Sleep Medicine, University of Arizona College of Medicine, Tucson, USA; UAHS Center for Sleep and Circadian Sciences, University of Arizona, USA; Division of Pulmonary, Allergy, Critical Care Medicine and Sleep Medicine, University of Arizona College of Medicine, Tucson, USA; Division of Sleep and Circadian Disorders, Brigham and Women's Hospital, Harvard Medical School, USA; Edson College of Nursing and Health Innovation, Arizona State University, USA; UAHS Center for Sleep and Circadian Sciences, University of Arizona, USA; Division of Pulmonary, Allergy, Critical Care Medicine and Sleep Medicine, University of Arizona College of Medicine, Tucson, USA; UAHS Center for Sleep and Circadian Sciences, University of Arizona, USA; Department of Medicine, Division of Clinical Data Analytics and Decision Support, University of Arizona College of Medicine, Phoenix, USA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4319336439</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>A QTc risk score in patients with obstructive sleep apnea</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2023-03-01</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Sleep Medicine</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.sleep.2023.02.005</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -897,35 +927,40 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36805915</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.sleep.2023.02.005</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,75 +974,80 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Verily Life Sciences, South San Francisco, CA, United States; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine, University of Arizona, Tucson, AZ, United States; Verily Life Sciences, South San Francisco, CA, United States; Verily Life Sciences, South San Francisco, CA, United States; Verily Life Sciences, South San Francisco, CA, United States; Verily Life Sciences, South San Francisco, CA, United States; Verily Life Sciences, South San Francisco, CA, United States; Providence Little Company of Mary Medical Center Torrance, Torrance, CA, United States; Department of Medicine, Cedars-Sinai Medical Center, Los Angeles, CA, United States; Department of Internal Medicine, Rush University Medical Center, Chicago, IL, United States; Inova Heart and Vascular Institute, Falls Church, VA, United States; Department of Medicine, Baylor College of Medicine, Houston, TX, United States; Department of Microbiology and Immunology, University of Illinois–College of Medicine, Chicago, IL, United States; Department of Internal Medicine, University of Texas Southwestern Medical Center, Dallas, TX, United States; Department of Medicine, Weill Cornell Medicine, New York, NY, United States; Department of Population Health Sciences, Weill Cornell Medicine, New York, NY, United States; Breathe Chicago Center, University of Illinois Chicago, Chicago, IL, United States; Verily Life Sciences, South San Francisco, CA, United States</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4387667151</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Distinct temporal trajectories and risk factors for Post-acute sequelae of SARS-CoV-2 infection</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2023-10-16</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Frontiers in Medicine</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Frontiers Media</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fmed.2023.1227883</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37908849</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fmed.2023.1227883</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1021,75 +1061,80 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t xml:space="preserve">Verily Life Sciences, South San Francisco, CA, United States of America; Janssen Research &amp; Development, LLC, San Diego, CA, United States of America; Verily Life Sciences, South San Francisco, CA, United States of America; Verily Life Sciences, South San Francisco, CA, United States of America; Janssen Research &amp; Development, LLC, San Diego, CA, United States of America; Verily Life Sciences, South San Francisco, CA, United States of America; Verily Life Sciences, South San Francisco, CA, United States of America; Verily Life Sciences, South San Francisco, CA, United States of America; Janssen Research &amp; Development, LLC, San Diego, CA, United States of America; Verily Life Sciences, South San Francisco, CA, United States of America; Verily Life Sciences, South San Francisco, CA, United States of America; Verily Life Sciences, South San Francisco, CA, United States of America; Verily Life Sciences, South San Francisco, CA, United States of America; Verily Life Sciences, South San Francisco, CA, United States of America; Verily Life Sciences, South San Francisco, CA, United States of America; Janssen Research &amp; Development, LLC, San Diego, CA, United States of America; Janssen Research &amp; Development, LLC, San Diego, CA, United States of America; Janssen Research &amp; Development, LLC, San Diego, CA, United States of America; Verily Life Sciences, South San Francisco, CA, United States of America; Verily Life Sciences, South San Francisco, CA, United States of America; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4387676124</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Multi-omic profiling reveals early immunological indicators for identifying COVID-19 Progressors</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2023-11-01</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Clinical Immunology</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.clim.2023.109808</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>cc-by-nc</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37852344</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.clim.2023.109808</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1103,39 +1148,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>Department of Pulmonary, Allergy, Critical Care, and Sleep Medicine, The University of Arizona, College of Medicine Tucson, 1625 N Campbell Ave, Tucson, AZ, 85719, USA; Division of Clinical Data Analytics and Decision Support, Department of Internal Medicine, The University of Arizona College of Medicine Phoenix, AZ, USA; Health Sciences Library, The University of Arizona, 1501 N Campbell Ave, Tucson, AZ, 85724, USA; Department of Family and Community Medicine, College of Medicine, The University of Arizona, Tucson, AZ, USA; Department of Child Health, University of Missouri, Columbia, MO, USA; Division of Sleep and Circadian Disorders, Departments of Medicine and Neurology, Brigham and Women's Hospital, Harvard Medical School, USA; Department of Pulmonary, Allergy, Critical Care, and Sleep Medicine, The University of Arizona, College of Medicine Tucson, USA</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4360820223</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Biomarkers of gut barrier dysfunction in obstructive sleep apnea: A systematic review and meta-analysis</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Sleep Medicine Reviews</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.smrv.2023.101774</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I10" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1143,35 +1188,40 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37028145</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.smrv.2023.101774</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1185,75 +1235,80 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>Division of Pulmonary, Critical Care and Sleep Medicine, University of Arizona College of Medicine-Phoenix, Phoenix, AZ, USA; Division of Pulmonary Critical Care and Sleep Medicine, University of Texas Medical Branch, Galveston, TX, USA; Division of Pulmonary Critical Care and Sleep Medicine, University of Texas Medical Branch, Galveston, TX, USA; Division of Pulmonary Critical Care and Sleep Medicine, University of Texas Medical Branch, Galveston, TX, USA; Division of Pulmonary, Critical Care and Sleep Medicine, University of Arizona College of Medicine-Phoenix, Phoenix, AZ, USA; Division of Pulmonary, Critical Care and Sleep Medicine, University of Arizona College of Medicine-Tucson, Tucson, AZ, USA; Department of Biostatistics &amp; Data Science, University of Texas Medical Branch, Galveston, TX, USA; Department of Biostatistics &amp; Data Science, University of Texas Medical Branch, Galveston, TX, USA; Division of Pulmonary Critical Care and Sleep Medicine, University of Texas Medical Branch, Galveston, TX, USA</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4386052211</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Healthcare Utilization in Patients with Chronic Obstructive Pulmonary Disease Discharged from Coronavirus 2019 Hospitalization</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2023-08-01</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>International Journal of Chronic Obstructive Pulmonary Disease</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Dove Medical Press</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>https://doi.org/10.2147/copd.s415621</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>cc-by-nc</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37636902</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>https://doi.org/10.2147/copd.s415621</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1267,75 +1322,80 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>Department of Immunobiology, University of Arizona College of Medicine-Tucson, P.O. Box 245221, 1501 N. Campbell Ave, Tucson, AZ, USA.; Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, USA; Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, USA; Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, USA; Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, USA; Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, USA; Vir, Inc., San Francisco, USA; Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, USA; Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, USA; Department of Medicine, University of Arizona College of Medicine-Phoenix, Phoenix, USA; Division of Pulmonary Medicine, Department of Medicine, Indiana University, Indianapolis, USA; Division of Pulmonary Medicine, Department of Medicine, Indiana University, Indianapolis, USA; Department of Medicine, University of Arizona College of Medicine-Phoenix, Phoenix, USA; Department of Medicine, Arizona Respiratory Center, Tucson, USA; The Division of Vascular Surgery, University of Arizona, Tucson, USA; Division of Pulmonary, Allergy, Critical Care &amp; Sleep Medicine, University of Arizona College of Medicine Tucson, Tucson, USA; Division of Pulmonary, Allergy, Critical Care &amp; Sleep Medicine, University of Arizona College of Medicine Tucson, Tucson, USA; Division of Pulmonary, Allergy, Critical Care &amp; Sleep Medicine, University of Arizona College of Medicine Tucson, Tucson, USA; Division of Pulmonary, Allergy, Critical Care &amp; Sleep Medicine, University of Arizona College of Medicine Tucson, Tucson, USA; BIO5 Institute, University of Arizona, Tucson, USA; R. Ken Coit College of Pharmacy, Tucson, USA; Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, USA; R. Ken Coit College of Pharmacy, Tucson, USA; Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, USA; R. Ken Coit College of Pharmacy, Tucson, USA</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4315754302</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>T-cell cellular stress and reticulocyte signatures, but not loss of naïve T lymphocytes, characterize severe COVID-19 in older adults</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2023-01-12</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>GeroScience</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Springer International Publishing</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s11357-022-00724-y</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I12" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36633825</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s11357-022-00724-y</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1349,75 +1409,80 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>Department of Health Promotion and Policy, University of Massachusetts, Amherst, MA 01003, USA; Center for Health Equity Research, Northern Arizona University, Flagstaff, AZ 86011, USA; Center for Health Equity Research, Northern Arizona University, Flagstaff, AZ 86011, USA; Center for Health Equity Research, Northern Arizona University, Flagstaff, AZ 86011, USA; Southwest Interdisciplinary Research Center, Arizona State University, Phoenix, AZ 85004, USA; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine, University of Arizona, Tucson, AZ 85724, USA; Center for Health Equity Research, Northern Arizona University, Flagstaff, AZ 86011, USA</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4324150145</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Engaging Youth and Young Adults in the COVID-19 Pandemic Response via the “It’s Our Turn” Crowdsourcing Contest</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2023-03-14</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>International Journal of Environmental Research and Public Health</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/ijerph20065112</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I13" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36982019</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/ijerph20065112</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1426,80 +1491,85 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sairam Parthasarathy, Jerry Zhang, Danielle Hyman, James Doherty, Ragy Saad, Benjamin D. Fox, Nell Marshall, Gregory Scott Parks</t>
+          <t>Shivali Patel, Wojciech Zaręba, Raymond L. Woosley, Karolina Perez, Imran Patel, Xiaojuan Xia, Chris Wendel, Jerod Miller, Stuart F. Quan, Sairam Parthasarathy</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4365511209</t>
+          <t>University of Arizona; University of Rochester Medical Center; University of Arizona College of Medicine-Phoenix; University of Arizona; University of Arizona; University of Rochester Medical Center; University of Arizona; University of Arizona; University of Arizona; University of Arizona</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Comorbidities and Presenting Symptoms in a Real-World Population With Obstructive Sleep Apnea</t>
+          <t>https://openalex.org/W4378610507</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2023-04-01</t>
+          <t>0485 The clinical utility of echocardiography in identifying patients with heart failure at a single academic sleep center</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>CNS Spectrums</t>
+          <t>2023-05-01</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Cambridge University Press</t>
+          <t>SLEEP</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1017/s1092852923001554</t>
+          <t>Oxford University Press</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1093/sleep/zsad077.0485</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1017/s1092852923001554</t>
-        </is>
-      </c>
       <c r="P14" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1093/sleep/zsad077.0485</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1508,80 +1578,85 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sairam Parthasarathy, Jerry Zhang, Danielle Hyman, James Doherty, Ragy Saad, Benjamin D. Fox, Nell Marshall, Gregory Scott Parks</t>
+          <t>Shivali Patel, Wojciech Zaręba, Raymond L. Woosley, Karolina Perez, Xiaojuan Xia, Chris Wendel, Imran Patel, Jerod Miller, Stuart F. Quan, Sairam Parthasarathy</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4365511230</t>
+          <t>University of Arizona; University of Rochester Medical Center; University of Arizona College of Medicine-Phoenix; University of Arizona; University of Rochester Medical Center; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Excessive Daytime Sleepiness in a Real-World Study of Participants With OSA With or Without Comorbid Depression</t>
+          <t>https://openalex.org/W4378610581</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2023-04-01</t>
+          <t>0441 Positive airway pressure therapy associated changes in ventricular repolarization in patients with heart failure</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>CNS Spectrums</t>
+          <t>2023-05-01</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Cambridge University Press</t>
+          <t>SLEEP</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1017/s1092852923001566</t>
+          <t>Oxford University Press</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1093/sleep/zsad077.0441</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1017/s1092852923001566</t>
-        </is>
-      </c>
       <c r="P15" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1093/sleep/zsad077.0441</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1590,42 +1665,42 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Raichel M. Alex, Shahrokh Javaheri, Rami Khayat, James C. Fang, Ruckshanda Majid, Sanjay R. Patel, Sairam Parthasarathy, Garrick C. Stewart, Sara Op de Beeck, Stephanie A. Marvin, L. Gell, Justin Vader, Luqi Chi, Mihaela Teodorescu, Phyllis Zee, M. Safwan Badr, K. Haffey, D. Mann, Andrew Wellman, Reena Mehra, Neomi Shah, Babak Mokhlesi, Eleanor T. Lewis, Abraham Weizman, Susan Redline, S.A. Sands</t>
+          <t>Daniel Combs, Jamie O. Edgin, Chiu‐Hsieh Hsu, Kenneth Bottrill, Hailey Van Vorce, Blake Gerken, Daniel S. Matloff, Sicily La Rue, Lucia Esparza, Sairam Parthasarathy</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4367607684</t>
+          <t>University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Identifying Central Versus Obstructive Sleep Apnea in Patients With Heart Failure</t>
+          <t>https://openalex.org/W4378611719</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>0796 Safety and efficacy of the combination of atomoxetine and oxybutynin for OSA treatment in children with Down Syndrome</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>2023-05-01</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>SLEEP</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a6184</t>
+          <t>Oxford University Press</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1093/sleep/zsad077.0796</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1635,35 +1710,40 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a6184</t>
-        </is>
-      </c>
       <c r="P16" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1093/sleep/zsad077.0796</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1672,80 +1752,85 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Shivali Patel, Wojciech Zaręba, Raymond L. Woosley, Karolina Perez, Imran Patel, Xiaojuan Xia, Chris Wendel, Jerod Miller, Stuart F. Quan, Sairam Parthasarathy</t>
+          <t>Andrew Tubbs, Jordan F. Karp, Sairam Parthasarathy, Michael L. Perlis, Michael Grandner</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4378610507</t>
+          <t>University of Arizona College of Medicine - Tucson; University of Arizona College of Medicine - Tucson; University of Arizona; Behavioral Sleep Medicine Program, University of Pennsylvania; Sleep &amp; Health Research Program, Behavioral Sleep Medicine Clinic, University of Arizona College of Medicine</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0485 The clinical utility of echocardiography in identifying patients with heart failure at a single academic sleep center</t>
+          <t>https://openalex.org/W4378611750</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>0926 Teaching Medical Students About Insomnia: Early Results of a Brief Lecture for Third Year Medical Students</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>2023-05-01</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>SLEEP</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>Oxford University Press</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1093/sleep/zsad077.0485</t>
-        </is>
-      </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1093/sleep/zsad077.0926</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1093/sleep/zsad077.0485</t>
-        </is>
-      </c>
       <c r="P17" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1093/sleep/zsad077.0926</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1754,80 +1839,85 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Shivali Patel, Wojciech Zaręba, Raymond L. Woosley, Karolina Perez, Xiaojuan Xia, Chris Wendel, Imran Patel, Jerod Miller, Stuart F. Quan, Sairam Parthasarathy</t>
+          <t>Saif Mashaqi, Anas Rihawi, Pooja Rangan, Katherine Ho, Mateen Khokhar, Sonia Helmick, Yazan Ashouri, Daniel Combs, Iman Ghaderi, Sairam Parthasarathy</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4378610581</t>
+          <t>Center for Sleep and Circadian Sciences, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Pulmonary, Critical Care, Allergy and Sleep Medicine, University of Arizona College of Medicine, Tucson, AZ, United States; Department of Internal Medicine, The University of Arizona College of Medicine Phoenix, Phoenix, AZ, United States; Division of Pulmonary and Critical Care Medicine, Department of Medicine, Oregon Health and Science University, Portland, OR, United States; Department of Internal Medicine, The University of Arizona College of Medicine Phoenix, Phoenix, AZ, United States; Department of Medicine, Banner University Medical Center Phoenix, Phoenix, AZ, United States; Department of General Surgery, Johns Hopkins University School of Medicine, Baltimore, MD, United States; Department of Internal Medicine, Dignity Health Medical Group St. Joseph's, Phoenix, AZ, United States; Department of Pulmonary and Sleep Medicine, Tucson VA Medical Center, Tucson, AZ, United States; Department of Neurology, St. Vincent Medical Center, Toledo, OH, United States; Center for Sleep and Circadian Sciences, University of Arizona Health Sciences, Tucson, AZ, United States; Section of Minimally Invasive, Robotic and Bariatric Surgery, Department of Surgery, University of Arizona College of Medicine, Tucson, AZ, United States; Center for Sleep and Circadian Sciences, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Pulmonary, Critical Care, Allergy and Sleep Medicine, University of Arizona College of Medicine, Tucson, AZ, United States</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0441 Positive airway pressure therapy associated changes in ventricular repolarization in patients with heart failure</t>
+          <t>https://openalex.org/W4385515697</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2023-05-01</t>
+          <t>The impact of bariatric surgery on breathing-related polysomnography parameters—Updated systematic review and meta-analysis</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>SLEEP</t>
+          <t>2023-08-03</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Oxford University Press</t>
+          <t>Frontiers in Sleep</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/sleep/zsad077.0441</t>
+          <t>Frontiers Media</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.3389/frsle.2023.1212936</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
+          <t>cc-by</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>bronze</t>
-        </is>
-      </c>
       <c r="K18" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1093/sleep/zsad077.0441</t>
-        </is>
-      </c>
       <c r="P18" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.3389/frsle.2023.1212936</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1836,80 +1926,85 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Daniel Combs, Jamie O. Edgin, Chiu‐Hsieh Hsu, Kenneth Bottrill, Hailey Van Vorce, Blake Gerken, Daniel S. Matloff, Sicily La Rue, Lucia Esparza, Sairam Parthasarathy</t>
+          <t>Christian Bime, Ying Wang, Gordon Carr, Dennis Swearingen, Sherri Kou, Pam Thompson, Vinita Kusupati, Sairam Parthasarathy</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4378611719</t>
+          <t>Division of Pulmonary, Allergy, Critical Care &amp; Sleep Medicine, Department of Medicine, University of Arizona, Tucson, AZ, United States; Department of Informatics Technology, Banner Health, Phoenix, AZ, United States; Division of Pulmonary, Allergy, Critical Care &amp; Sleep Medicine, Department of Medicine, University of Arizona, Tucson, AZ, United States; Department of Biomedical Informatics, University of Arizona College of Medicine, Phoenix, AZ, United States; Department of Medical Informatics, Banner Health, Phoenix, AZ, United States; Department of Informatics Technology, Banner Health, Phoenix, AZ, United States; Department of Academic and Facilities Research, Banner Health, Phoenix, AZ, United States; Division of General Internal Medicine, Department of Medicine, University of Arizona, Tucson, AZ, United States; Division of Pulmonary, Allergy, Critical Care &amp; Sleep Medicine, Department of Medicine, University of Arizona, Tucson, AZ, United States</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0796 Safety and efficacy of the combination of atomoxetine and oxybutynin for OSA treatment in children with Down Syndrome</t>
+          <t>https://openalex.org/W4385855925</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2023-05-01</t>
+          <t>Disparities in outcomes of COVID-19 hospitalizations in native American individuals</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>SLEEP</t>
+          <t>2023-08-15</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Oxford University Press</t>
+          <t>Frontiers in Public Health</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/sleep/zsad077.0796</t>
+          <t>Frontiers Media</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.3389/fpubh.2023.1220582</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
+          <t>cc-by</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>bronze</t>
-        </is>
-      </c>
       <c r="K19" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/sleep/zsad077.0796</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37649785</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.3389/fpubh.2023.1220582</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1918,80 +2013,85 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Andrew Tubbs, Jordan F. Karp, Sairam Parthasarathy, Michael L. Perlis, Michael Grandner</t>
+          <t>Sairam Parthasarathy, Michael Arzt, Shahrokh Javaheri</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4378611750</t>
+          <t>University of Arizona Health Sciences, Center for Sleep, Circadian, and Neuroscience Research, University of Arizona, Tucson, AZ; Department of Internal Medicine II, University Hospital Regensburg, Germany; Division of Pulmonary and Sleep, Bethesda North Hospital, Cincinnati, Ohio</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0926 Teaching Medical Students About Insomnia: Early Results of a Brief Lecture for Third Year Medical Students</t>
+          <t>https://openalex.org/W4387408632</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2023-05-01</t>
+          <t>A call for precision medicine: Facing the challenge of sleep-disordered breathing in heart failure</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>SLEEP</t>
+          <t>2023-12-01</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Oxford University Press</t>
+          <t>Sleep Medicine</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/sleep/zsad077.0926</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1016/j.sleep.2023.10.002</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="N20" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/sleep/zsad077.0926</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37844544</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.sleep.2023.10.002</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2000,80 +2100,85 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Shivali Patel, Michael R. Erwin, Richard G. Olmstead, Girardin Jean‐Louis, Sairam Parthasarathy, Shawn D. Youngstedt</t>
+          <t>Stacey L. Simon, Judith J. Stephenson, Kevin Haynes, Elaine Kennedy, Gilles Frydman, Adam Amdur, Sairam Parthasarathy</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4383316554</t>
+          <t>University of Colorado Anschutz Medical Campus, Aurora, CO.; Carelon Research, Wilmington, DE.; Carelon Research, Wilmington, DE.; Carelon Research, Wilmington, DE.; American Sleep Apnea Association, Washington, DC.; American Sleep Apnea Association, Washington, DC.; University of Arizona College of Medicine, Tucson, AZ.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Comparisons of Sleep, Demographics, and Health-Related Variables in Older Long and Average Duration Sleepers</t>
+          <t>https://openalex.org/W4387949903</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2023-06-01</t>
+          <t>The lived experience of positive airway pressure therapy in patients with obstructive sleep apnea across the lifespan: a qualitative study</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Sleep Science</t>
+          <t>2023-10-26</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Brazilian Association of Sleep and Latin American Federation of Sleep Societies</t>
+          <t>Journal of Clinical Sleep Medicine</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1055/s-0043-1770804</t>
+          <t>American Academy of Sleep Medicine</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>cc-by-nc-nd</t>
+          <t>https://doi.org/10.5664/jcsm.10890</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="N21" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37425974</t>
-        </is>
-      </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1055/s-0043-1770804</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37882633</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.5664/jcsm.10890</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2082,80 +2187,85 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Saif Mashaqi, Anas Rihawi, Pooja Rangan, Katherine Ho, Mateen Khokhar, Sonia Helmick, Yazan Ashouri, Daniel Combs, Iman Ghaderi, Sairam Parthasarathy</t>
+          <t>Amit Arora, Wojciech Zaręba, Raymond L. Woosley, Yann C. Klimentidis, Imran Patel, Stuart F. Quan, Christopher Wendel, Fadi Shamoun, Stefano Guerra, Sairam Parthasarathy, Shivali Patel</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385515697</t>
+          <t>University of Arizona, UNITED STATES; University of Rochester Medical Center, UNITED STATES; The University of Arizona, UNITED STATES; The University of Arizona, UNITED STATES; Division of Pulmonary, Allergy, Critical Care Medicine and Sleep Medicine, University of Arizona College of Medicine – Tucson; UAHS Center for Sleep and Circadian Sciences, University of Arizona; Division of Pulmonary, Allergy, Critical Care Medicine and Sleep Medicine, University of Arizona College of Medicine – Tucson; UAHS Center for Sleep and Circadian Sciences, University of Arizona; UAHS Center for Sleep and Circadian Sciences, University of Arizona; Mayo Clinic Arizona; The University of Arizona, UNITED STATES; Division of Pulmonary, Allergy, Critical Care Medicine and Sleep Medicine, University of Arizona College of Medicine – Tucson; UAHS Center for Sleep and Circadian Sciences, University of Arizona; Division of Pulmonary, Allergy, Critical Care Medicine and Sleep Medicine, University of Arizona College of Medicine – Tucson; UAHS Center for Sleep and Circadian Sciences, University of Arizona</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>The impact of bariatric surgery on breathing-related polysomnography parameters—Updated systematic review and meta-analysis</t>
+          <t>https://openalex.org/W4388485265</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2023-08-03</t>
+          <t>Genetic QT Score and Sleep Apnea as Predictors of Sudden Cardiac Death in the UK Biobank</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Frontiers in Sleep</t>
+          <t>2023-11-08</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Frontiers Media</t>
+          <t>medRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3389/frsle.2023.1212936</t>
+          <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1101/2023.11.07.23298237</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="N22" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3389/frsle.2023.1212936</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37986981</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1101/2023.11.07.23298237</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2164,42 +2274,37 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Daniel Combs, Jamie O. Edgin, Chiu‐Hsieh Hsu, Kenneth Bottrill, Hailey Van Vorce, Blake Gerken, Daniel S. Matloff, Sicily La Rue, Sairam Parthasarathy</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W4385684537</t>
+          <t>Sairam Parthasarathy</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>The combination of atomoxetine and oxybutynin for the treatment of obstructive sleep apnea in children with Down syndrome</t>
+          <t>https://openalex.org/W4388569130</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2023-12-01</t>
+          <t>Toxins in Disease Development</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Journal of Clinical Sleep Medicine</t>
+          <t>2023-11-10</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>American Academy of Sleep Medicine</t>
+          <t>CRC Press eBooks</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5664/jcsm.10764</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1201/9781032711881-28</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2209,201 +2314,206 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="N23" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37555595</t>
-        </is>
-      </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5664/jcsm.10764</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>article</t>
+          <t>https://doi.org/10.1201/9781032711881-28</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>book-chapter</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Christian Bime, Ying Wang, Gordon Carr, Dennis Swearingen, Sherri Kou, Pam Thompson, Vinita Kusupati, Sairam Parthasarathy</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W4385855925</t>
+          <t>Sairam Parthasarathy</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Disparities in outcomes of COVID-19 hospitalizations in native American individuals</t>
+          <t>https://openalex.org/W4388569460</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2023-08-15</t>
+          <t>Enzymes in Disease Development</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Frontiers in Public Health</t>
+          <t>2023-11-10</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Frontiers Media</t>
+          <t>CRC Press eBooks</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3389/fpubh.2023.1220582</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1201/9781032711881-27</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
+      <c r="N24" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37649785</t>
-        </is>
-      </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3389/fpubh.2023.1220582</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>article</t>
+          <t>https://doi.org/10.1201/9781032711881-27</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>book-chapter</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Saif Mashaqi, Michael William, Stuart F. Quan, Daniel Combs, Lauren Estep, Shivali Patel, Jyotsna Sahni, Sairam Parthasarathy</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W4386513413</t>
+          <t>Sairam Parthasarathy</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Case report: A case of complete resolution of obstructive and central sleep apnea with Cheyne Stokes breathing in a patient with heart failure 60 days post-left ventricular assist device implantation</t>
+          <t>https://openalex.org/W4388574132</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2023-09-07</t>
+          <t>Principles of Plant Disease Management</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Frontiers in Sleep</t>
+          <t>2023-11-10</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Frontiers Media</t>
+          <t>CRC Press eBooks</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3389/frsle.2023.1228038</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1201/9781032711881-33</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="M25" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
+      <c r="N25" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="O25" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.3389/frsle.2023.1228038</t>
-        </is>
-      </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>article</t>
+          <t>https://doi.org/10.1201/9781032711881-33</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>book-chapter</t>
         </is>
       </c>
     </row>
@@ -2413,159 +2523,164 @@
           <t>Sairam Parthasarathy</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W4386529558</t>
-        </is>
-      </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Flatten the curve: bending the trajectory of respiratory disease–related mortalityCommentary on Du M, Liu M, Liu J. U-shaped association between sleep duration and the risk of respiratory diseases mortality: a large prospective cohort study from UK Biobank. &lt;i&gt;J Clin Sleep Med&lt;/i&gt; . 2023;19(11):1923–1932. doi:10.5664/jcsm.10732</t>
+          <t>https://openalex.org/W4388574248</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2023-11-01</t>
+          <t>Plant Growth Regulators in Disease Development</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Journal of Clinical Sleep Medicine</t>
+          <t>2023-11-10</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>American Academy of Sleep Medicine</t>
+          <t>CRC Press eBooks</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5664/jcsm.10826</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1201/9781032711881-29</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
+      <c r="N26" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37681362</t>
-        </is>
-      </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5664/jcsm.10826</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>article</t>
+          <t>https://doi.org/10.1201/9781032711881-29</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>book-chapter</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sairam Parthasarathy, Michael Arzt, Shahrokh Javaheri</t>
+          <t>Kamal Sumar, Laura Blue, Gina Fatahi, Atiq ur Rehman Bhatti, Mehek Sumar, Stéphanie Alvarez, Pedro Cons, Nathalie Valencia, Zachary Williams, Sairam Parthasarathy, Chyke A. Doubeni</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387408632</t>
+          <t>Adelante Healthcare; Providertech LLC; Ohio State University; Mayo Clinic; University of California San Diego; Adelante Healthcare; Adelante Healthcare; Adelante Healthcare; Adelante Healthcare; University of Arizona; Ohio State University</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>A call for precision medicine: Facing the challenge of sleep-disordered breathing in heart failure</t>
+          <t>https://openalex.org/W4389573484</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2023-12-01</t>
+          <t>The Effect of Adding Physician Recommendation in Digitally-Enabled Outreach for COVID-19 Vaccination in Socially/Economically Disadvantaged Populations Subtitle: A Randomized Controlled Trial</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Sleep Medicine</t>
+          <t>2023-12-11</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>Research Square (Research Square)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.sleep.2023.10.002</t>
+          <t>Research Square (United States)</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.21203/rs.3.rs-3604972/v1</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="M27" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
+      <c r="N27" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37844544</t>
-        </is>
-      </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.sleep.2023.10.002</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/38168293</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.21203/rs.3.rs-3604972/v1</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2574,80 +2689,85 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Amit Arora, Wojciech Zaręba, Raymond L. Woosley, Yann C. Klimentidis, Imran Patel, Stuart F. Quan, Christopher Wendel, Fadi Shamoun, Stefano Guerra, Sairam Parthasarathy, Shivali Patel</t>
+          <t>Daniel E. Palomares, Phat L. Tran, Catherine Jerman, Moe Momayez, Pierre Deymier, Jawaad Sheriff, Danny Bluestein, Sairam Parthasarathy, Marvin J. Slepian</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387898634</t>
+          <t>Arizona Center for Accelerated Biomedical Innovation, University of Arizona, Tucson, AZ 85724, USA; Department of Biomedical Engineering, University of Arizona, Tucson, AZ 85724, USA; Arizona Center for Accelerated Biomedical Innovation, University of Arizona, Tucson, AZ 85724, USA; Department of Medicine, University of Arizona, Tucson, AZ 85724, USA; Department of Medicine, University of Arizona, Tucson, AZ 85724, USA; Arizona Center for Accelerated Biomedical Innovation, University of Arizona, Tucson, AZ 85724, USA; Department of Mining &amp; Geological Engineering, University of Arizona, Tucson, AZ 85724, USA; Arizona Center for Accelerated Biomedical Innovation, University of Arizona, Tucson, AZ 85724, USA; Department of Materials Science &amp; Engineering, University of Arizona, Tucson, AZ 85724, USA; Department of Biomedical Engineering, Stony Brook University, Stony Brook, NY 11794, USA; Department of Biomedical Engineering, Stony Brook University, Stony Brook, NY 11794, USA; Arizona Center for Accelerated Biomedical Innovation, University of Arizona, Tucson, AZ 85724, USA; Department of Medicine, University of Arizona, Tucson, AZ 85724, USA; Health Sciences Center for Sleep and Circadian Sciences, University of Arizona, Tucson, AZ 85724, USA; Arizona Center for Accelerated Biomedical Innovation, University of Arizona, Tucson, AZ 85724, USA; Department of Biomedical Engineering, Stony Brook University, Stony Brook, NY 11794, USA; Department of Biomedical Engineering, University of Arizona, Tucson, AZ 85724, USA; Department of Medicine, University of Arizona, Tucson, AZ 85724, USA</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Genetic QT Score and Sleep Apnea as Predictors of Sudden Cardiac Death in the UK Biobank</t>
+          <t>https://openalex.org/W4389626846</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>Vibro-Acoustic Platelet Activation: An Additive Mechanism of Prothrombosis with Applicability to Snoring and Obstructive Sleep Apnea</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-12-12</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Bioengineering</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2139/ssrn.4611498</t>
+          <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.3390/bioengineering10121414</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="M28" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr">
+      <c r="N28" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2139/ssrn.4611498</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/38136005</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.3390/bioengineering10121414</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2656,42 +2776,42 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Stacey L. Simon, Judith J. Stephenson, Kevin Haynes, Elaine Kennedy, Gilles Frydman, Adam Amdur, Sairam Parthasarathy</t>
+          <t>Sairam Parthasarathy, Jerry Zhang, Danielle Hyman, James Doherty, Ragy Saad, Benjamin D. Fox, Nell Marshall, Gregory Scott Parks</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387949903</t>
+          <t>University of Arizona, Tucson, AZ, USA; Jazz Pharmaceuticals, Palo Alto, CA, USA; Jazz Pharmaceuticals, Palo Alto, CA, USA; Jazz Pharmaceuticals, Palo Alto, CA, USA; Jazz Pharmaceuticals, Palo Alto, CA, USA; Evidation Health, San Mateo, CA, USA; Evidation Health, San Mateo, CA, USA; Axsome Therapeutics, New York, NY, USA; Jazz Pharmaceuticals, Palo Alto, CA, USA</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>The lived experience of positive airway pressure therapy in patients with obstructive sleep apnea across the lifespan: a qualitative study</t>
+          <t>https://openalex.org/W4365511209</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2023-10-26</t>
+          <t>Comorbidities and Presenting Symptoms in a Real-World Population With Obstructive Sleep Apnea</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Journal of Clinical Sleep Medicine</t>
+          <t>2023-04-01</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>American Academy of Sleep Medicine</t>
+          <t>CNS Spectrums</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5664/jcsm.10890</t>
+          <t>Cambridge University Press</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1017/s1092852923001554</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2701,35 +2821,40 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="M29" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
+      <c r="N29" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37882633</t>
-        </is>
-      </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5664/jcsm.10890</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1017/s1092852923001554</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2738,80 +2863,85 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Amit Arora, Wojciech Zaręba, Raymond L. Woosley, Yann C. Klimentidis, Imran Patel, Stuart F. Quan, Christopher Wendel, Fadi Shamoun, Stefano Guerra, Sairam Parthasarathy, Shivali Patel</t>
+          <t>Sairam Parthasarathy, Jerry Zhang, Danielle Hyman, James Doherty, Ragy Saad, Benjamin D. Fox, Nell Marshall, Gregory Scott Parks</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4388485265</t>
+          <t>University of Arizona, Tucson, AZ, USA; Jazz Pharmaceuticals, Palo Alto, CA, USA; Jazz Pharmaceuticals, Palo Alto, CA, USA; Jazz Pharmaceuticals, Palo Alto, CA, USA; Jazz Pharmaceuticals, Palo Alto, CA, USA; Evidation Health, San Mateo, CA, USA; Evidation Health, San Mateo, CA, USA; Axsome Therapeutics, New York, NY, USA; Jazz Pharmaceuticals, Palo Alto, CA, USA</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Genetic QT Score and Sleep Apnea as Predictors of Sudden Cardiac Death in the UK Biobank</t>
+          <t>https://openalex.org/W4365511230</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2023-11-08</t>
+          <t>Excessive Daytime Sleepiness in a Real-World Study of Participants With OSA With or Without Comorbid Depression</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>medRxiv (Cold Spring Harbor Laboratory)</t>
+          <t>2023-04-01</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Cold Spring Harbor Laboratory</t>
+          <t>CNS Spectrums</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1101/2023.11.07.23298237</t>
+          <t>Cambridge University Press</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1017/s1092852923001566</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="M30" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr">
+      <c r="N30" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37986981</t>
-        </is>
-      </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1101/2023.11.07.23298237</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1017/s1092852923001566</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2820,42 +2950,42 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Maria Sans-Fuentes, Lidia Azurdia Sierra, Nelly Kazan Sancho Cruz, Victoria Rubio, Karen Lutrick, Kathryn Hamm, Elizabeth Connick, Puneet Shroff, Dean Billheimer, Ronald B. Sorensen, Alicia Dinsmore, Wendy Wolfersteig, Stephanie L. Ayers, Janko Nikolich‐Žugich, Chyke A. Doubeni, Jon C. Tilburt, Cecilia Rosales, Francisco Moreno, Daniel Derksen, Sabrina Oesterle, Samantha Sabo, Sairam Parthasarathy</t>
+          <t>Raichel M. Alex, Shahrokh Javaheri, Rami Khayat, James C. Fang, Ruckshanda Majid, Sanjay R. Patel, Sairam Parthasarathy, Garrick C. Stewart, Sara Op de Beeck, Stephanie A. Marvin, L. Gell, Justin Vader, Luqi Chi, Mihaela Teodorescu, Phyllis Zee, M. Safwan Badr, K. Haffey, D. Mann, Andrew Wellman, Reena Mehra, Neomi Shah, Babak Mokhlesi, Eleanor T. Lewis, Abraham Weizman, Susan Redline, S.A. Sands</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4388518244</t>
+          <t>Division of Sleep &amp; Circadian Disorders, Brigham and Women's Hospital, Boston, MA, United States; Division of Medicine, The Ohio State University, Columbus, OH, United States; Division of Pulmonary and Critical Care Medicine, University of California, Irvine, CA, United States; Division of Cardiology, University of Utah, Salt Lake City, UT, United States; Divisions of Pulmonary, Critical Care and Sleep Medicine, McGovern Medical School, The University of Texas Health Science Center, Houston, TX, United States; PACCM Division, Univ of Pittsburgh Medical Center, Pittsburgh, PA, United States; Arizona Hlth Sci Center, Univ of  Arizona, Tucson, AZ, United States; Division of Cardiology, Brigham and Women's Hospital, Boston, MA, United States; Translational Neurosciences - ENT, University of Antwerp, Wilrijk,  Belgium; Division of Sleep &amp; Circadian Disorders, Brigham and Women's Hospital, Boston, MA, United States; Division of Sleep &amp; Circadian Disorders, Brigham and Women's Hospital, Boston, MA, United States; Department of Cardiology, Washington University School of Medicine, St Louis, MO, United States; Department of Neurology, Washington University School of Medicine, St. Louis, MO, United States; Univ of Wisconsin - Madison Sch of Med, Madison, WI, United States; Center for Circadian and Sleep Medicine, Department of Neurology, Northwestern University Feinberg School of Medicine, Chicago, IL, United States; Div of Pulm Crit Care and Sleep Med, Wayne State University, Detroit, MI, United States; Saint Luke’s Mid America Heart Institute, Kansas City, MO, United States; The University of Queensland, Brisbane,  Australia; Division of Sleep &amp; Circadian Disorders, Brigham and Women's Hospital, Boston, MA, United States; Cleveland Clinic Lerner College of Medicine, Case Western Reserve University, Cleveland, OH, United States; at Mount Sinai Division of Pulmonary, Critical Care, and Sleep Medicine, Icahn School of Medicine, New York, NY, United States; Division of Pulmonary, Critical Care, Sleep Medicine, Rush University Medical Center, Chicago, IL, United States; Division of Cardiovascular Medicine and Cardiovascular Institute, Stanford University School of Medicine, Palo Alto, CA, United States; Division of Cardiovascular Medicine, The Ohio State University, Columbus, OH, United States; Division of Sleep &amp; Circadian Disorders, Brigham and Women's Hospital, Boston, MA, United States; Division of Sleep &amp; Circadian Disorders, Brigham and Women's Hospital, Boston, MA, United States</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Temporal Changes in Vaccine-Specific Willingness Across Race/Ethnicity Following Serious Adverse Event Reports</t>
+          <t>https://openalex.org/W4367607684</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2023-11-09</t>
+          <t>Identifying Central Versus Obstructive Sleep Apnea in Patients With Heart Failure</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>American Journal of Public Health</t>
+          <t>2023-05-01</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>American Public Health Association</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2105/ajph.2023.307484</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a6184</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2865,35 +2995,40 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="L31" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="M31" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr">
+      <c r="N31" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37944076</t>
-        </is>
-      </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2105/ajph.2023.307484</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a6184</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2902,124 +3037,129 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Sairam Parthasarathy</t>
+          <t>Shivali Patel, Michael R. Erwin, Richard G. Olmstead, Girardin Jean‐Louis, Sairam Parthasarathy, Shawn D. Youngstedt</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4388569130</t>
+          <t>Division of Pulmonary, Allergy, Critical Care Medicine and Sleep Medicine, University of Arizona, UAHS Center for Sleep and Circadian Sciences, Tucson, Arizona, United States; Cousins Center for Psychoneuroimmunology, Semel Institute for Neuroscience and Human Behavior, and Department of Psychiatry and Biobehavioral Sciences, David Geffen School of Medicine, University of California, Los Angeles, California, United States; Cousins Center for Psychoneuroimmunology, Semel Institute for Neuroscience and Human Behavior, and Department of Psychiatry and Biobehavioral Sciences, David Geffen School of Medicine, University of California, Los Angeles, California, United States; Department of Psychiatry, NYU Grossman School of Medicine, New York, New York, United States; Division of Pulmonary, Allergy, Critical Care Medicine and Sleep Medicine, University of Arizona, UAHS Center for Sleep and Circadian Sciences, Tucson, Arizona, United States; Edson College of Nursing and Health Innovation, Arizona State University, Phoenix, Arizona, United States</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Toxins in Disease Development</t>
+          <t>https://openalex.org/W4383316554</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2023-11-10</t>
+          <t>Comparisons of Sleep, Demographics, and Health-Related Variables in Older Long and Average Duration Sleepers</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>CRC Press eBooks</t>
+          <t>2023-06-01</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Sleep Science</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1201/9781032711881-28</t>
+          <t>Brazilian Association of Sleep and Latin American Federation of Sleep Societies</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1055/s-0043-1770804</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by-nc-nd</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="M32" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr">
+      <c r="N32" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1201/9781032711881-28</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37425974</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>book-chapter</t>
+          <t>https://doi.org/10.1055/s-0043-1770804</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>article</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Sairam Parthasarathy</t>
+          <t>Daniel Combs, Jamie O. Edgin, Chiu‐Hsieh Hsu, Kenneth Bottrill, Hailey Van Vorce, Blake Gerken, Daniel S. Matloff, Sicily La Rue, Sairam Parthasarathy</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4388569460</t>
+          <t>UAHS Center for Sleep &amp;amp; Circadian Sciences, University of Arizona, Tucson, Arizona; Department of Psychology, University of Arizona, Tucson, Arizona; Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson, Arizona; Department of Psychology, University of Arizona, Tucson, Arizona; Department of Psychology, University of Arizona, Tucson, Arizona; UAHS Center for Sleep &amp;amp; Circadian Sciences, University of Arizona, Tucson, Arizona; UAHS Center for Sleep &amp;amp; Circadian Sciences, University of Arizona, Tucson, Arizona; UAHS Center for Sleep &amp;amp; Circadian Sciences, University of Arizona, Tucson, Arizona; UAHS Center for Sleep &amp;amp; Circadian Sciences, University of Arizona, Tucson, Arizona</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Enzymes in Disease Development</t>
+          <t>https://openalex.org/W4385684537</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2023-11-10</t>
+          <t>The combination of atomoxetine and oxybutynin for the treatment of obstructive sleep apnea in children with Down syndrome</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>CRC Press eBooks</t>
+          <t>2023-12-01</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Journal of Clinical Sleep Medicine</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1201/9781032711881-27</t>
+          <t>American Academy of Sleep Medicine</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.5664/jcsm.10764</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -3029,119 +3169,129 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="L33" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr">
+      <c r="N33" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1201/9781032711881-27</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37555595</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>book-chapter</t>
+          <t>https://doi.org/10.5664/jcsm.10764</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>article</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Sairam Parthasarathy</t>
+          <t>Saif Mashaqi, Michael William, Stuart F. Quan, Daniel Combs, Lauren Estep, Shivali Patel, Jyotsna Sahni, Sairam Parthasarathy</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4388574132</t>
+          <t>Department of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona College of Medicine, Tucson, AZ, United States; Department of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona College of Medicine, Tucson, AZ, United States; Department of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona College of Medicine, Tucson, AZ, United States; Division of Sleep and Circadian Disorders, Division of Sleep Medicine, Brigham and Women's Hospital, Harvard Medical School, Boston, MA, United States; Division of Pulmonary and Sleep Medicine, Department of Pediatrics, UAHS Center for Sleep and Circadian Sciences, University of Arizona, Tucson, AZ, United States; Department of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona College of Medicine, Tucson, AZ, United States; Department of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona College of Medicine, Tucson, AZ, United States; Department of Sleep Medicine, Swan Sleep Medicine, Tucson, AZ, United States; Department of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona College of Medicine, Tucson, AZ, United States</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Principles of Plant Disease Management</t>
+          <t>https://openalex.org/W4386513413</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2023-11-10</t>
+          <t>Case report: A case of complete resolution of obstructive and central sleep apnea with Cheyne Stokes breathing in a patient with heart failure 60 days post-left ventricular assist device implantation</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>CRC Press eBooks</t>
+          <t>2023-09-07</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Frontiers in Sleep</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1201/9781032711881-33</t>
+          <t>Frontiers Media</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.3389/frsle.2023.1228038</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="M34" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr">
+      <c r="N34" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N34" t="inlineStr">
+      <c r="O34" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1201/9781032711881-33</t>
-        </is>
-      </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>book-chapter</t>
+          <t>https://doi.org/10.3389/frsle.2023.1228038</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>article</t>
         </is>
       </c>
     </row>
@@ -3153,37 +3303,37 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4388574248</t>
+          <t>University of Arizona Health Sciences, Center for Sleep, Circadian, and Neuroscience Research, University of Arizona, Tucson, Arizona</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Plant Growth Regulators in Disease Development</t>
+          <t>https://openalex.org/W4386529558</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2023-11-10</t>
+          <t>Flatten the curve: bending the trajectory of respiratory disease–related mortalityCommentary on Du M, Liu M, Liu J. U-shaped association between sleep duration and the risk of respiratory diseases mortality: a large prospective cohort study from UK Biobank. &lt;i&gt;J Clin Sleep Med&lt;/i&gt; . 2023;19(11):1923–1932. doi:10.5664/jcsm.10732</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>CRC Press eBooks</t>
+          <t>2023-11-01</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Journal of Clinical Sleep Medicine</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1201/9781032711881-29</t>
+          <t>American Academy of Sleep Medicine</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.5664/jcsm.10826</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -3193,79 +3343,84 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="M35" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr">
+      <c r="N35" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1201/9781032711881-29</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37681362</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>book-chapter</t>
+          <t>https://doi.org/10.5664/jcsm.10826</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>article</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Sadia Ghani, Karla Granados, Chloe Wills, Pamela Alfonso‐Miller, Orfeu M. Buxton, John Ruiz, Sairam Parthasarathy, Sanjay R. Patel, P. Alfredo Molina, Azizi Seixas, Girardin Jean-Louis, Michael Grandner</t>
+          <t>Amit Arora, Wojciech Zaręba, Raymond L. Woosley, Yann C. Klimentidis, Imran Patel, Stuart F. Quan, Christopher Wendel, Fadi Shamoun, Stefano Guerra, Sairam Parthasarathy, Shivali Patel</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4388725008</t>
+          <t>University of Arizona; University of Rochester Medical Center; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; Mayo Clinic; University of Arizona; University of Arizona; University of Arizona</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Association of Birthplace for Sleep Duration, Sleep Quality, and Sleep Disorder Symptoms, at the US–Mexico Border</t>
+          <t>https://openalex.org/W4387898634</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2023-11-15</t>
+          <t>Genetic QT Score and Sleep Apnea as Predictors of Sudden Cardiac Death in the UK Biobank</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Behavioral Sleep Medicine</t>
+          <t>2023-01-01</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Taylor &amp; Francis</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/15402002.2023.2279308</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.2139/ssrn.4611498</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -3275,35 +3430,40 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
+      <c r="L36" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="M36" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M36" t="inlineStr">
+      <c r="N36" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37968911</t>
-        </is>
-      </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/15402002.2023.2279308</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.2139/ssrn.4611498</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3312,80 +3472,85 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Kamal Sumar, Laura Blue, Gina Fatahi, Atiq ur Rehman Bhatti, Mehek Sumar, Stéphanie Alvarez, Pedro Cons, Nathalie Valencia, Zachary Williams, Sairam Parthasarathy, Chyke A. Doubeni</t>
+          <t>Maria Sans-Fuentes, Lidia Azurdia Sierra, Nelly Kazan Sancho Cruz, Victoria Rubio, Karen Lutrick, Kathryn Hamm, Elizabeth Connick, Puneet Shroff, Dean Billheimer, Ronald B. Sorensen, Alicia Dinsmore, Wendy Wolfersteig, Stephanie L. Ayers, Janko Nikolich‐Žugich, Chyke A. Doubeni, Jon C. Tilburt, Cecilia Rosales, Francisco Moreno, Daniel Derksen, Sabrina Oesterle, Samantha Sabo, Sairam Parthasarathy</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4389573484</t>
+          <t>Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>The Effect of Adding Physician Recommendation in Digitally-Enabled Outreach for COVID-19 Vaccination in Socially/Economically Disadvantaged Populations Subtitle: A Randomized Controlled Trial</t>
+          <t>https://openalex.org/W4388518244</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2023-12-11</t>
+          <t>Temporal Changes in Vaccine-Specific Willingness Across Race/Ethnicity Following Serious Adverse Event Reports</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Research Square (Research Square)</t>
+          <t>2023-11-09</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Research Square (United States)</t>
+          <t>American Journal of Public Health</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://doi.org/10.21203/rs.3.rs-3604972/v1</t>
+          <t>American Public Health Association</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.2105/ajph.2023.307484</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="M37" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr">
+      <c r="N37" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/38168293</t>
-        </is>
-      </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>https://doi.org/10.21203/rs.3.rs-3604972/v1</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37944076</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.2105/ajph.2023.307484</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3394,80 +3559,85 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Daniel E. Palomares, Phat L. Tran, Catherine Jerman, Moe Momayez, Pierre Deymier, Jawaad Sheriff, Danny Bluestein, Sairam Parthasarathy, Marvin J. Slepian</t>
+          <t>Sadia Ghani, Karla Granados, Chloe Wills, Pamela Alfonso‐Miller, Orfeu M. Buxton, John Ruiz, Sairam Parthasarathy, Sanjay R. Patel, P. Alfredo Molina, Azizi Seixas, Girardin Jean-Louis, Michael Grandner</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4389626846</t>
+          <t>Department of Psychiatry, University of Arizona, Tucson, USA; Department of Psychiatry, University of Arizona, Tucson, USA; Department of Psychiatry, University of Arizona, Tucson, USA; Northumbria Sleep Research, Northumbria University, Newcastle-upon-Tyne, UK; Department of Biobehavioral Health, The Pennsylvania State University, University Park, Pennsylvania, USA; Department of Psychology, University of Arizona, Tucson, USA; University of Arizona Health Sciences Center for Sleep and Circadian Sciences, University of Arizona, Tucson, USA; Department of Medicine, University of Pittsburgh School of Medicine, Pittsburgh, USA; Mariposa Community Health Center, Nogales, USA; Department of Population Health, and Department of Psychiatry, NYU Langone Health, New York; Department of Psychiatry and Behavioral Sciences and Department of Neurology, The University of Miami Miller School of Medicine Miami, USA; Department of Psychiatry, University of Arizona, Tucson, USA</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Vibro-Acoustic Platelet Activation: An Additive Mechanism of Prothrombosis with Applicability to Snoring and Obstructive Sleep Apnea</t>
+          <t>https://openalex.org/W4388725008</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2023-12-12</t>
+          <t>Association of Birthplace for Sleep Duration, Sleep Quality, and Sleep Disorder Symptoms, at the US–Mexico Border</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Bioengineering</t>
+          <t>2023-11-15</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Multidisciplinary Digital Publishing Institute</t>
+          <t>Behavioral Sleep Medicine</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/bioengineering10121414</t>
+          <t>Taylor &amp; Francis</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1080/15402002.2023.2279308</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="M38" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M38" t="inlineStr">
+      <c r="N38" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/38136005</t>
-        </is>
-      </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/bioengineering10121414</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37968911</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1080/15402002.2023.2279308</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
         <is>
           <t>article</t>
         </is>

--- a/DOM_Banner/output/dept0713/Sairam Parthasarathy_2023.xlsx
+++ b/DOM_Banner/output/dept0713/Sairam Parthasarathy_2023.xlsx
@@ -507,7 +507,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>163</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -594,7 +594,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>21</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -621,7 +621,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Melissa Knauert, Najib Ayas, Karen J. Bosma, Xavier Drouot, Mojdeh Heavner, Robert L. Owens, Paula L. Watson, M. Elizabeth Wilcox, Brian J. Anderson, Makayla Cordoza, John W. Devlin, Rosalind Elliott, Brian K. Gehlbach, Timothy D. Girard, Biren B. Kamdar, Amy Korwin, Elizabeth R. Lusczek, Sairam Parthasarathy, Claudia Spies, Jag Sunderram, Irene Telias, Gerald L. Weinhouse, Phyllis C. Zee</t>
+          <t>Melissa Knauert, Najib Ayas, Karen J. Bosma, Xavier Drouot, Mojdeh Heavner, Robert L. Owens, Paula L. Watson, M. Elizabeth Wilcox, Brian J. Anderson, Makayla Cordoza, John W. Devlin, Rosalind Elliott, Brian K. Gehlbach, Timothy D. Girard, Biren B. Kamdar, Amy Korwin, Elizabeth R. Lusczek, Sairam Parthasarathy, Claudia Spies, Jag Sunderram, Irene Telías, Gerald L. Weinhouse, Phyllis C. Zee</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -708,7 +708,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Anna May, Sanjay R. Patel, Motoo Yamauchi, Tilak K Verma, Terri E. Weaver, Ching Li Chai-Coetzer, J. Daryl Thornton, Gary Ewart, Terrance Showers, Najib Ayas, Sairam Parthasarathy, Reena Mehra, Martha E. Billings</t>
+          <t>Anna M. May, Sanjay R. Patel, Motoo Yamauchi, Tilak K Verma, Terri E. Weaver, Ching Li Chai-Coetzer, J. Daryl Thornton, Gary Ewart, Terrance Showers, Najib Ayas, Sairam Parthasarathy, Reena Mehra, Martha E. Billings</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -768,7 +768,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -882,32 +882,32 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Shivali Patel, Wojciech Zaręba, Christopher Wendel, Karolina Perez, Imran Patel, Stuart F. Quan, Shawn D. Youngstedt, Sairam Parthasarathy, Raymond L. Woosley</t>
+          <t>Saif Mashaqi, Pooja Rangan, Ahlam Saleh, Ivo Abraham, David Gozal, Stuart F. Quan, Sairam Parthasarathy</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Division of Pulmonary, Allergy, Critical Care Medicine and Sleep Medicine, University of Arizona College of Medicine, Tucson, USA; UAHS Center for Sleep and Circadian Sciences, University of Arizona, USA; Division of Cardiology and Heart Research, University of Rochester Medical Center, USA; UAHS Center for Sleep and Circadian Sciences, University of Arizona, USA; UAHS Center for Sleep and Circadian Sciences, University of Arizona, USA; Division of Pulmonary, Allergy, Critical Care Medicine and Sleep Medicine, University of Arizona College of Medicine, Tucson, USA; UAHS Center for Sleep and Circadian Sciences, University of Arizona, USA; Division of Pulmonary, Allergy, Critical Care Medicine and Sleep Medicine, University of Arizona College of Medicine, Tucson, USA; Division of Sleep and Circadian Disorders, Brigham and Women's Hospital, Harvard Medical School, USA; Edson College of Nursing and Health Innovation, Arizona State University, USA; UAHS Center for Sleep and Circadian Sciences, University of Arizona, USA; Division of Pulmonary, Allergy, Critical Care Medicine and Sleep Medicine, University of Arizona College of Medicine, Tucson, USA; UAHS Center for Sleep and Circadian Sciences, University of Arizona, USA; Department of Medicine, Division of Clinical Data Analytics and Decision Support, University of Arizona College of Medicine, Phoenix, USA</t>
+          <t>Department of Pulmonary, Allergy, Critical Care, and Sleep Medicine, The University of Arizona, College of Medicine Tucson, 1625 N Campbell Ave, Tucson, AZ, 85719, USA; Division of Clinical Data Analytics and Decision Support, Department of Internal Medicine, The University of Arizona College of Medicine Phoenix, AZ, USA; Health Sciences Library, The University of Arizona, 1501 N Campbell Ave, Tucson, AZ, 85724, USA; Department of Family and Community Medicine, College of Medicine, The University of Arizona, Tucson, AZ, USA; Department of Child Health, University of Missouri, Columbia, MO, USA; Division of Sleep and Circadian Disorders, Departments of Medicine and Neurology, Brigham and Women's Hospital, Harvard Medical School, USA; Department of Pulmonary, Allergy, Critical Care, and Sleep Medicine, The University of Arizona, College of Medicine Tucson, USA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4319336439</t>
+          <t>https://openalex.org/W4360820223</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A QTc risk score in patients with obstructive sleep apnea</t>
+          <t>Biomarkers of gut barrier dysfunction in obstructive sleep apnea: A systematic review and meta-analysis</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2023-03-01</t>
+          <t>2023-06-01</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Sleep Medicine</t>
+          <t>Sleep Medicine Reviews</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -917,7 +917,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.sleep.2023.02.005</t>
+          <t>https://doi.org/10.1016/j.smrv.2023.101774</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -942,7 +942,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -952,12 +952,12 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/36805915</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37028145</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.sleep.2023.02.005</t>
+          <t>https://doi.org/10.1016/j.smrv.2023.101774</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -969,57 +969,57 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Chen Chen, Sairam Parthasarathy, Jacqueline M. Leung, Michelle J. Wu, Katherine Drake, Vanessa K. Ridaura, Howard Zisser, William A. Conrad, Victor F. Tapson, James N. Moy, Christopher R. deFilippi, Iván O. Rosas, Bellur S. Prabhakar, Mujeeb Basit, Mirella Salvatore, Jerry A. Krishnan, Charles C. Kim</t>
+          <t>Shivali Patel, Wojciech Zaręba, Christopher Wendel, Karolina Perez, Imran Patel, Stuart F. Quan, Shawn D. Youngstedt, Sairam Parthasarathy, Raymond L. Woosley</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Verily Life Sciences, South San Francisco, CA, United States; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine, University of Arizona, Tucson, AZ, United States; Verily Life Sciences, South San Francisco, CA, United States; Verily Life Sciences, South San Francisco, CA, United States; Verily Life Sciences, South San Francisco, CA, United States; Verily Life Sciences, South San Francisco, CA, United States; Verily Life Sciences, South San Francisco, CA, United States; Providence Little Company of Mary Medical Center Torrance, Torrance, CA, United States; Department of Medicine, Cedars-Sinai Medical Center, Los Angeles, CA, United States; Department of Internal Medicine, Rush University Medical Center, Chicago, IL, United States; Inova Heart and Vascular Institute, Falls Church, VA, United States; Department of Medicine, Baylor College of Medicine, Houston, TX, United States; Department of Microbiology and Immunology, University of Illinois–College of Medicine, Chicago, IL, United States; Department of Internal Medicine, University of Texas Southwestern Medical Center, Dallas, TX, United States; Department of Medicine, Weill Cornell Medicine, New York, NY, United States; Department of Population Health Sciences, Weill Cornell Medicine, New York, NY, United States; Breathe Chicago Center, University of Illinois Chicago, Chicago, IL, United States; Verily Life Sciences, South San Francisco, CA, United States</t>
+          <t>UAHS Center for Sleep and Circadian Sciences, University of Arizona, USA; Division of Cardiology and Heart Research, University of Rochester Medical Center, USA; UAHS Center for Sleep and Circadian Sciences, University of Arizona, USA; UAHS Center for Sleep and Circadian Sciences, University of Arizona, USA; UAHS Center for Sleep and Circadian Sciences, University of Arizona, USA; Division of Pulmonary, Allergy, Critical Care Medicine and Sleep Medicine, University of Arizona College of Medicine, Tucson, USA; Division of Sleep and Circadian Disorders, Brigham and Women's Hospital, Harvard Medical School, USA; Edson College of Nursing and Health Innovation, Arizona State University, USA; UAHS Center for Sleep and Circadian Sciences, University of Arizona, USA; UAHS Center for Sleep and Circadian Sciences, University of Arizona, USA; Department of Medicine, Division of Clinical Data Analytics and Decision Support, University of Arizona College of Medicine, Phoenix, USA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387667151</t>
+          <t>https://openalex.org/W4319336439</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Distinct temporal trajectories and risk factors for Post-acute sequelae of SARS-CoV-2 infection</t>
+          <t>A QTc risk score in patients with obstructive sleep apnea</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2023-10-16</t>
+          <t>2023-03-01</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Frontiers in Medicine</t>
+          <t>Sleep Medicine</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Frontiers Media</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3389/fmed.2023.1227883</t>
+          <t>https://doi.org/10.1016/j.sleep.2023.02.005</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1039,12 +1039,12 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37908849</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36805915</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3389/fmed.2023.1227883</t>
+          <t>https://doi.org/10.1016/j.sleep.2023.02.005</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1056,47 +1056,47 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Katherine Drake, Dimitri Talantov, Gary J. Tong, Jack T. Lin, Simon Verheijden, Samuel G. Katz, Jacqueline M. Leung, Benjamin Yuen, Vinod Krishna, Michelle J. Wu, Alex Sutherland, Sarah A. Short, Pouya Kheradpour, Maxwell R. Mumbach, Kate M Franz, Владимир Трифонов, Molly V. Lucas, James Merson, Charles C. Kim, Chen Chen, Sairam Parthasarathy, Victor F. Tapson, James N. Moy, Christopher R. de Filippi, Iván O. Rosas, Mujeeb Basit, Mirella Salvatore, Jerry A. Krishnan</t>
+          <t>Chen Chen, Sairam Parthasarathy, Jacqueline M. Leung, Michelle J. Wu, Katherine Drake, Vanessa K. Ridaura, Howard Zisser, William A. Conrad, Victor F. Tapson, James N. Moy, Christopher R. deFilippi, Iván O. Rosas, Bellur S. Prabhakar, Mujeeb Basit, Mirella Salvatore, Jerry A. Krishnan, Charles C. Kim</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Verily Life Sciences, South San Francisco, CA, United States of America; Janssen Research &amp; Development, LLC, San Diego, CA, United States of America; Verily Life Sciences, South San Francisco, CA, United States of America; Verily Life Sciences, South San Francisco, CA, United States of America; Janssen Research &amp; Development, LLC, San Diego, CA, United States of America; Verily Life Sciences, South San Francisco, CA, United States of America; Verily Life Sciences, South San Francisco, CA, United States of America; Verily Life Sciences, South San Francisco, CA, United States of America; Janssen Research &amp; Development, LLC, San Diego, CA, United States of America; Verily Life Sciences, South San Francisco, CA, United States of America; Verily Life Sciences, South San Francisco, CA, United States of America; Verily Life Sciences, South San Francisco, CA, United States of America; Verily Life Sciences, South San Francisco, CA, United States of America; Verily Life Sciences, South San Francisco, CA, United States of America; Verily Life Sciences, South San Francisco, CA, United States of America; Janssen Research &amp; Development, LLC, San Diego, CA, United States of America; Janssen Research &amp; Development, LLC, San Diego, CA, United States of America; Janssen Research &amp; Development, LLC, San Diego, CA, United States of America; Verily Life Sciences, South San Francisco, CA, United States of America; Verily Life Sciences, South San Francisco, CA, United States of America; ; ; ; ; ; ; ; </t>
+          <t>Verily Life Sciences, South San Francisco, CA, United States; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine, University of Arizona, Tucson, AZ, United States; Verily Life Sciences, South San Francisco, CA, United States; Verily Life Sciences, South San Francisco, CA, United States; Verily Life Sciences, South San Francisco, CA, United States; Verily Life Sciences, South San Francisco, CA, United States; Verily Life Sciences, South San Francisco, CA, United States; Providence Little Company of Mary Medical Center Torrance, Torrance, CA, United States; Department of Medicine, Cedars-Sinai Medical Center, Los Angeles, CA, United States; Department of Internal Medicine, Rush University Medical Center, Chicago, IL, United States; Inova Heart and Vascular Institute, Falls Church, VA, United States; Department of Medicine, Baylor College of Medicine, Houston, TX, United States; Department of Microbiology and Immunology, University of Illinois–College of Medicine, Chicago, IL, United States; Department of Internal Medicine, University of Texas Southwestern Medical Center, Dallas, TX, United States; Department of Medicine, Weill Cornell Medicine, New York, NY, United States; Department of Population Health Sciences, Weill Cornell Medicine, New York, NY, United States; Breathe Chicago Center, University of Illinois Chicago, Chicago, IL, United States; Verily Life Sciences, South San Francisco, CA, United States</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387676124</t>
+          <t>https://openalex.org/W4387667151</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Multi-omic profiling reveals early immunological indicators for identifying COVID-19 Progressors</t>
+          <t>Distinct temporal trajectories and risk factors for Post-acute sequelae of SARS-CoV-2 infection</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2023-11-01</t>
+          <t>2023-10-16</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Clinical Immunology</t>
+          <t>Frontiers in Medicine</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>Frontiers Media</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.clim.2023.109808</t>
+          <t>https://doi.org/10.3389/fmed.2023.1227883</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>cc-by-nc</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>hybrid</t>
+          <t>gold</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1126,12 +1126,12 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37852344</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37908849</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.clim.2023.109808</t>
+          <t>https://doi.org/10.3389/fmed.2023.1227883</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1143,32 +1143,32 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Saif Mashaqi, Pooja Rangan, Ahlam Saleh, Ivo Abraham, David Gozal, Stuart F. Quan, Sairam Parthasarathy</t>
+          <t>Katherine Drake, Dimitri Talantov, Gary J. Tong, Jack T. Lin, Simon Verheijden, Samuel G. Katz, Jacqueline M. Leung, Benjamin Yuen, Vinod Krishna, Michelle J. Wu, Alex Sutherland, Sarah A. Short, Pouya Kheradpour, Maxwell R. Mumbach, Kate M Franz, Владимир Трифонов, Molly V. Lucas, James Merson, Charles C. Kim, Chen Chen, Sairam Parthasarathy, Victor F. Tapson, James N. Moy, Christopher R. de Filippi, Iván O. Rosas, Mujeeb Basit, Mirella Salvatore, Jerry A. Krishnan</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Department of Pulmonary, Allergy, Critical Care, and Sleep Medicine, The University of Arizona, College of Medicine Tucson, 1625 N Campbell Ave, Tucson, AZ, 85719, USA; Division of Clinical Data Analytics and Decision Support, Department of Internal Medicine, The University of Arizona College of Medicine Phoenix, AZ, USA; Health Sciences Library, The University of Arizona, 1501 N Campbell Ave, Tucson, AZ, 85724, USA; Department of Family and Community Medicine, College of Medicine, The University of Arizona, Tucson, AZ, USA; Department of Child Health, University of Missouri, Columbia, MO, USA; Division of Sleep and Circadian Disorders, Departments of Medicine and Neurology, Brigham and Women's Hospital, Harvard Medical School, USA; Department of Pulmonary, Allergy, Critical Care, and Sleep Medicine, The University of Arizona, College of Medicine Tucson, USA</t>
+          <t xml:space="preserve">Verily Life Sciences, South San Francisco, CA, United States of America; Janssen Research &amp; Development, LLC, San Diego, CA, United States of America; Verily Life Sciences, South San Francisco, CA, United States of America; Verily Life Sciences, South San Francisco, CA, United States of America; Janssen Research &amp; Development, LLC, San Diego, CA, United States of America; Verily Life Sciences, South San Francisco, CA, United States of America; Verily Life Sciences, South San Francisco, CA, United States of America; Verily Life Sciences, South San Francisco, CA, United States of America; Janssen Research &amp; Development, LLC, San Diego, CA, United States of America; Verily Life Sciences, South San Francisco, CA, United States of America; Verily Life Sciences, South San Francisco, CA, United States of America; Verily Life Sciences, South San Francisco, CA, United States of America; Verily Life Sciences, South San Francisco, CA, United States of America; Verily Life Sciences, South San Francisco, CA, United States of America; Verily Life Sciences, South San Francisco, CA, United States of America; Janssen Research &amp; Development, LLC, San Diego, CA, United States of America; Janssen Research &amp; Development, LLC, San Diego, CA, United States of America; Janssen Research &amp; Development, LLC, San Diego, CA, United States of America; Verily Life Sciences, South San Francisco, CA, United States of America; Verily Life Sciences, South San Francisco, CA, United States of America; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4360820223</t>
+          <t>https://openalex.org/W4387676124</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Biomarkers of gut barrier dysfunction in obstructive sleep apnea: A systematic review and meta-analysis</t>
+          <t>Multi-omic profiling reveals early immunological indicators for identifying COVID-19 Progressors</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2023-06-01</t>
+          <t>2023-11-01</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Sleep Medicine Reviews</t>
+          <t>Clinical Immunology</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1178,22 +1178,22 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.smrv.2023.101774</t>
+          <t>https://doi.org/10.1016/j.clim.2023.109808</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by-nc</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>hybrid</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1213,12 +1213,12 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37028145</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37852344</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.smrv.2023.101774</t>
+          <t>https://doi.org/10.1016/j.clim.2023.109808</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -1317,12 +1317,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Mladen Jergović, Makiko Watanabe, Ruchika Bhat, Christopher P Coplen, Sandip Ashok Sonar, Rachel Wong, Yvonne Castaneda, Lisa B. Davidson, Mrinalini Kala, Rachel C Wilson, Homer L. Twigg, Kenneth S. Knox, Heidi E Erickson, Craig Weinkauf, Christian Bime, Billie Bixby, Sairam Parthasarathy, Jarrod Mosier, Bonnie LaFleur, Deepta Bhattacharya, Janko Nikolich‐Žugich</t>
+          <t>Mladen Jergović, Makiko Watanabe, Ruchika Bhat, Christopher P Coplen, Sandip Ashok Sonar, Rachel Wong, Yvonne Castaneda, Lisa Davidson, Mrinalini Kala, Rachel C. Wilson, Homer L. Twigg, Kenneth S. Knox, Heidi E Erickson, Craig Weinkauf, Christian Bime, Billie Bixby, Sairam Parthasarathy, Jarrod Mosier, Bonnie LaFleur, Deepta Bhattacharya, Janko Nikolich‐Žugich</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Department of Immunobiology, University of Arizona College of Medicine-Tucson, P.O. Box 245221, 1501 N. Campbell Ave, Tucson, AZ, USA.; Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, USA; Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, USA; Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, USA; Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, USA; Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, USA; Vir, Inc., San Francisco, USA; Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, USA; Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, USA; Department of Medicine, University of Arizona College of Medicine-Phoenix, Phoenix, USA; Division of Pulmonary Medicine, Department of Medicine, Indiana University, Indianapolis, USA; Division of Pulmonary Medicine, Department of Medicine, Indiana University, Indianapolis, USA; Department of Medicine, University of Arizona College of Medicine-Phoenix, Phoenix, USA; Department of Medicine, Arizona Respiratory Center, Tucson, USA; The Division of Vascular Surgery, University of Arizona, Tucson, USA; Division of Pulmonary, Allergy, Critical Care &amp; Sleep Medicine, University of Arizona College of Medicine Tucson, Tucson, USA; Division of Pulmonary, Allergy, Critical Care &amp; Sleep Medicine, University of Arizona College of Medicine Tucson, Tucson, USA; Division of Pulmonary, Allergy, Critical Care &amp; Sleep Medicine, University of Arizona College of Medicine Tucson, Tucson, USA; Division of Pulmonary, Allergy, Critical Care &amp; Sleep Medicine, University of Arizona College of Medicine Tucson, Tucson, USA; BIO5 Institute, University of Arizona, Tucson, USA; R. Ken Coit College of Pharmacy, Tucson, USA; Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, USA; R. Ken Coit College of Pharmacy, Tucson, USA; Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, USA; R. Ken Coit College of Pharmacy, Tucson, USA</t>
+          <t>Department of Immunobiology, University of Arizona College of Medicine-Tucson, P.O. Box 245221, 1501 N. Campbell Ave, Tucson, AZ, USA; Department of Immunobiology, University of Arizona College of Medicine-Tucson, P.O. Box 245221, 1501 N. Campbell Ave, Tucson, AZ, USA; Department of Immunobiology, University of Arizona College of Medicine-Tucson, P.O. Box 245221, 1501 N. Campbell Ave, Tucson, AZ, USA; Department of Immunobiology, University of Arizona College of Medicine-Tucson, P.O. Box 245221, 1501 N. Campbell Ave, Tucson, AZ, USA; Department of Immunobiology, University of Arizona College of Medicine-Tucson, P.O. Box 245221, 1501 N. Campbell Ave, Tucson, AZ, USA; Department of Immunobiology, University of Arizona College of Medicine-Tucson, P.O. Box 245221, 1501 N. Campbell Ave, Tucson, AZ, USA; Department of Immunobiology, University of Arizona College of Medicine-Tucson, P.O. Box 245221, 1501 N. Campbell Ave, Tucson, AZ, USA; Arizona Center on Aging, University of Arizona College of Medicine-Tucson, Tucson, AZ, USA; Department of Medicine, University of Arizona College of Medicine-Phoenix, Phoenix, AZ, USA; Division of Pulmonary Medicine, Department of Medicine, Indiana University, Indianapolis, IN, USA; Division of Pulmonary Medicine, Department of Medicine, Indiana University, Indianapolis, IN, USA; Department of Medicine, University of Arizona College of Medicine-Phoenix, Phoenix, AZ, USA; Department of Medicine, Arizona Respiratory Center, Tucson, AZ, USA; The Division of Vascular Surgery, University of Arizona, Tucson, AZ, USA; Division of Pulmonary, Allergy, Critical Care &amp; Sleep Medicine, University of Arizona College of Medicine Tucson, Tucson, AZ, USA; Division of Pulmonary, Allergy, Critical Care &amp; Sleep Medicine, University of Arizona College of Medicine Tucson, Tucson, AZ, USA; Division of Pulmonary, Allergy, Critical Care &amp; Sleep Medicine, University of Arizona College of Medicine Tucson, Tucson, AZ, USA; Division of Pulmonary, Allergy, Critical Care &amp; Sleep Medicine, University of Arizona College of Medicine Tucson, Tucson, AZ, USA; BIO5 Institute, University of Arizona, Tucson, USA; R. Ken Coit College of Pharmacy, Tucson, AZ, USA; Arizona Center on Aging, University of Arizona College of Medicine-Tucson, Tucson, AZ, USA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1404,42 +1404,42 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Linnea Evans, Omar Gomez, Dulce Jiménez, Heather J. Williamson, Ann Turnlund Carver, Sairam Parthasarathy, Samantha Sabo</t>
+          <t>Sairam Parthasarathy, Jerry Zhang, Danielle Hyman, James Doherty, Ragy Saad, Benjamin D. Fox, Nell Marshall, Gregory Scott Parks</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Department of Health Promotion and Policy, University of Massachusetts, Amherst, MA 01003, USA; Center for Health Equity Research, Northern Arizona University, Flagstaff, AZ 86011, USA; Center for Health Equity Research, Northern Arizona University, Flagstaff, AZ 86011, USA; Center for Health Equity Research, Northern Arizona University, Flagstaff, AZ 86011, USA; Southwest Interdisciplinary Research Center, Arizona State University, Phoenix, AZ 85004, USA; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine, University of Arizona, Tucson, AZ 85724, USA; Center for Health Equity Research, Northern Arizona University, Flagstaff, AZ 86011, USA</t>
+          <t>University of Arizona, Tucson, AZ, USA; Jazz Pharmaceuticals, Palo Alto, CA, USA; Jazz Pharmaceuticals, Palo Alto, CA, USA; Jazz Pharmaceuticals, Palo Alto, CA, USA; Jazz Pharmaceuticals, Palo Alto, CA, USA; Evidation Health, San Mateo, CA, USA; Evidation Health, San Mateo, CA, USA; Axsome Therapeutics, New York, NY, USA; Jazz Pharmaceuticals, Palo Alto, CA, USA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4324150145</t>
+          <t>https://openalex.org/W4365511209</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Engaging Youth and Young Adults in the COVID-19 Pandemic Response via the “It’s Our Turn” Crowdsourcing Contest</t>
+          <t>Comorbidities and Presenting Symptoms in a Real-World Population With Obstructive Sleep Apnea</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2023-03-14</t>
+          <t>2023-04-01</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>International Journal of Environmental Research and Public Health</t>
+          <t>CNS Spectrums</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Multidisciplinary Digital Publishing Institute</t>
+          <t>Cambridge University Press</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/ijerph20065112</t>
+          <t>https://doi.org/10.1017/s1092852923001554</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1474,12 +1474,12 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/36982019</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/ijerph20065112</t>
+          <t>https://doi.org/10.1017/s1092852923001554</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -1491,42 +1491,42 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Shivali Patel, Wojciech Zaręba, Raymond L. Woosley, Karolina Perez, Imran Patel, Xiaojuan Xia, Chris Wendel, Jerod Miller, Stuart F. Quan, Sairam Parthasarathy</t>
+          <t>Sairam Parthasarathy, Jerry Zhang, Danielle Hyman, James Doherty, Ragy Saad, Benjamin D. Fox, Nell Marshall, Gregory Scott Parks</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>University of Arizona; University of Rochester Medical Center; University of Arizona College of Medicine-Phoenix; University of Arizona; University of Arizona; University of Rochester Medical Center; University of Arizona; University of Arizona; University of Arizona; University of Arizona</t>
+          <t>University of Arizona, Tucson, AZ, USA; Jazz Pharmaceuticals, Palo Alto, CA, USA; Jazz Pharmaceuticals, Palo Alto, CA, USA; Jazz Pharmaceuticals, Palo Alto, CA, USA; Jazz Pharmaceuticals, Palo Alto, CA, USA; Evidation Health, San Mateo, CA, USA; Evidation Health, San Mateo, CA, USA; Axsome Therapeutics, New York, NY, USA; Jazz Pharmaceuticals, Palo Alto, CA, USA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4378610507</t>
+          <t>https://openalex.org/W4365511230</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0485 The clinical utility of echocardiography in identifying patients with heart failure at a single academic sleep center</t>
+          <t>Excessive Daytime Sleepiness in a Real-World Study of Participants With OSA With or Without Comorbid Depression</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2023-05-01</t>
+          <t>2023-04-01</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>SLEEP</t>
+          <t>CNS Spectrums</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Oxford University Press</t>
+          <t>Cambridge University Press</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/sleep/zsad077.0485</t>
+          <t>https://doi.org/10.1017/s1092852923001566</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1566,7 +1566,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/sleep/zsad077.0485</t>
+          <t>https://doi.org/10.1017/s1092852923001566</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -1578,42 +1578,42 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Shivali Patel, Wojciech Zaręba, Raymond L. Woosley, Karolina Perez, Xiaojuan Xia, Chris Wendel, Imran Patel, Jerod Miller, Stuart F. Quan, Sairam Parthasarathy</t>
+          <t>Daniel Combs, Jamie O. Edgin, Chiu‐Hsieh Hsu, Kenneth Bottrill, Hailey Van Vorce, Blake Gerken, Daniel S. Matloff, Sicily La Rue, Sairam Parthasarathy</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>University of Arizona; University of Rochester Medical Center; University of Arizona College of Medicine-Phoenix; University of Arizona; University of Rochester Medical Center; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona</t>
+          <t>UAHS Center for Sleep &amp;amp; Circadian Sciences, University of Arizona, Tucson, Arizona; Department of Psychology, University of Arizona, Tucson, Arizona; Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson, Arizona; Department of Psychology, University of Arizona, Tucson, Arizona; Department of Psychology, University of Arizona, Tucson, Arizona; UAHS Center for Sleep &amp;amp; Circadian Sciences, University of Arizona, Tucson, Arizona; UAHS Center for Sleep &amp;amp; Circadian Sciences, University of Arizona, Tucson, Arizona; UAHS Center for Sleep &amp;amp; Circadian Sciences, University of Arizona, Tucson, Arizona; UAHS Center for Sleep &amp;amp; Circadian Sciences, University of Arizona, Tucson, Arizona</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4378610581</t>
+          <t>https://openalex.org/W4385684537</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0441 Positive airway pressure therapy associated changes in ventricular repolarization in patients with heart failure</t>
+          <t>The combination of atomoxetine and oxybutynin for the treatment of obstructive sleep apnea in children with Down syndrome</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2023-05-01</t>
+          <t>2023-12-01</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>SLEEP</t>
+          <t>Journal of Clinical Sleep Medicine</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Oxford University Press</t>
+          <t>American Academy of Sleep Medicine</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/sleep/zsad077.0441</t>
+          <t>https://doi.org/10.5664/jcsm.10764</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1623,12 +1623,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1648,12 +1648,12 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37555595</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/sleep/zsad077.0441</t>
+          <t>https://doi.org/10.5664/jcsm.10764</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -1665,42 +1665,42 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Daniel Combs, Jamie O. Edgin, Chiu‐Hsieh Hsu, Kenneth Bottrill, Hailey Van Vorce, Blake Gerken, Daniel S. Matloff, Sicily La Rue, Lucia Esparza, Sairam Parthasarathy</t>
+          <t>Amit Arora, Wojciech Zaręba, Raymond L. Woosley, Yann C. Klimentidis, Imran Patel, Stuart F. Quan, Christopher Wendel, Fadi Shamoun, Stefano Guerra, Sairam Parthasarathy, Shivali Patel</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona</t>
+          <t>University of Arizona; University of Rochester Medical Center; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; Mayo Clinic; University of Arizona; University of Arizona; University of Arizona</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4378611719</t>
+          <t>https://openalex.org/W4387898634</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0796 Safety and efficacy of the combination of atomoxetine and oxybutynin for OSA treatment in children with Down Syndrome</t>
+          <t>Genetic QT Score and Sleep Apnea as Predictors of Sudden Cardiac Death in the UK Biobank</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2023-05-01</t>
+          <t>2023-01-01</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>SLEEP</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Oxford University Press</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/sleep/zsad077.0796</t>
+          <t>https://doi.org/10.2139/ssrn.4611498</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1710,12 +1710,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1740,7 +1740,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/sleep/zsad077.0796</t>
+          <t>https://doi.org/10.2139/ssrn.4611498</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -1752,42 +1752,42 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Andrew Tubbs, Jordan F. Karp, Sairam Parthasarathy, Michael L. Perlis, Michael Grandner</t>
+          <t>Amit Arora, Wojciech Zaręba, Raymond L. Woosley, Yann C. Klimentidis, Imran Patel, Stuart F. Quan, Christopher Wendel, Fadi Shamoun, Stefano Guerra, Sairam Parthasarathy, Shivali Patel</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>University of Arizona College of Medicine - Tucson; University of Arizona College of Medicine - Tucson; University of Arizona; Behavioral Sleep Medicine Program, University of Pennsylvania; Sleep &amp; Health Research Program, Behavioral Sleep Medicine Clinic, University of Arizona College of Medicine</t>
+          <t>University of Arizona, UNITED STATES; University of Rochester Medical Center, UNITED STATES; The University of Arizona, UNITED STATES; The University of Arizona, UNITED STATES; Division of Pulmonary, Allergy, Critical Care Medicine and Sleep Medicine, University of Arizona College of Medicine – Tucson; Division of Pulmonary, Allergy, Critical Care Medicine and Sleep Medicine, University of Arizona College of Medicine – Tucson; UAHS Center for Sleep and Circadian Sciences, University of Arizona; Mayo Clinic Arizona; The University of Arizona, UNITED STATES; Division of Pulmonary, Allergy, Critical Care Medicine and Sleep Medicine, University of Arizona College of Medicine – Tucson; Division of Pulmonary, Allergy, Critical Care Medicine and Sleep Medicine, University of Arizona College of Medicine – Tucson</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4378611750</t>
+          <t>https://openalex.org/W4388485265</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0926 Teaching Medical Students About Insomnia: Early Results of a Brief Lecture for Third Year Medical Students</t>
+          <t>Genetic QT Score and Sleep Apnea as Predictors of Sudden Cardiac Death in the UK Biobank</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2023-05-01</t>
+          <t>2023-11-08</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>SLEEP</t>
+          <t>medRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Oxford University Press</t>
+          <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/sleep/zsad077.0926</t>
+          <t>https://doi.org/10.1101/2023.11.07.23298237</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1797,12 +1797,12 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1822,12 +1822,12 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37986981</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/sleep/zsad077.0926</t>
+          <t>https://doi.org/10.1101/2023.11.07.23298237</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -1839,47 +1839,47 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Saif Mashaqi, Anas Rihawi, Pooja Rangan, Katherine Ho, Mateen Khokhar, Sonia Helmick, Yazan Ashouri, Daniel Combs, Iman Ghaderi, Sairam Parthasarathy</t>
+          <t>Linnea Evans, Omar Gomez, Dulce Jiménez, Heather J. Williamson, Ann Turnlund Carver, Sairam Parthasarathy, Samantha Sabo</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Center for Sleep and Circadian Sciences, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Pulmonary, Critical Care, Allergy and Sleep Medicine, University of Arizona College of Medicine, Tucson, AZ, United States; Department of Internal Medicine, The University of Arizona College of Medicine Phoenix, Phoenix, AZ, United States; Division of Pulmonary and Critical Care Medicine, Department of Medicine, Oregon Health and Science University, Portland, OR, United States; Department of Internal Medicine, The University of Arizona College of Medicine Phoenix, Phoenix, AZ, United States; Department of Medicine, Banner University Medical Center Phoenix, Phoenix, AZ, United States; Department of General Surgery, Johns Hopkins University School of Medicine, Baltimore, MD, United States; Department of Internal Medicine, Dignity Health Medical Group St. Joseph's, Phoenix, AZ, United States; Department of Pulmonary and Sleep Medicine, Tucson VA Medical Center, Tucson, AZ, United States; Department of Neurology, St. Vincent Medical Center, Toledo, OH, United States; Center for Sleep and Circadian Sciences, University of Arizona Health Sciences, Tucson, AZ, United States; Section of Minimally Invasive, Robotic and Bariatric Surgery, Department of Surgery, University of Arizona College of Medicine, Tucson, AZ, United States; Center for Sleep and Circadian Sciences, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Pulmonary, Critical Care, Allergy and Sleep Medicine, University of Arizona College of Medicine, Tucson, AZ, United States</t>
+          <t>Department of Health Promotion and Policy, University of Massachusetts, Amherst, MA 01003, USA; Center for Health Equity Research, Northern Arizona University, Flagstaff, AZ 86011, USA; Center for Health Equity Research, Northern Arizona University, Flagstaff, AZ 86011, USA; Center for Health Equity Research, Northern Arizona University, Flagstaff, AZ 86011, USA; Southwest Interdisciplinary Research Center, Arizona State University, Phoenix, AZ 85004, USA; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine, University of Arizona, Tucson, AZ 85724, USA; Center for Health Equity Research, Northern Arizona University, Flagstaff, AZ 86011, USA</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385515697</t>
+          <t>https://openalex.org/W4324150145</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>The impact of bariatric surgery on breathing-related polysomnography parameters—Updated systematic review and meta-analysis</t>
+          <t>Engaging Youth and Young Adults in the COVID-19 Pandemic Response via the “It’s Our Turn” Crowdsourcing Contest</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2023-08-03</t>
+          <t>2023-03-14</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Frontiers in Sleep</t>
+          <t>International Journal of Environmental Research and Public Health</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Frontiers Media</t>
+          <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3389/frsle.2023.1212936</t>
+          <t>https://doi.org/10.3390/ijerph20065112</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1909,12 +1909,12 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36982019</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3389/frsle.2023.1212936</t>
+          <t>https://doi.org/10.3390/ijerph20065112</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -1926,57 +1926,57 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Christian Bime, Ying Wang, Gordon Carr, Dennis Swearingen, Sherri Kou, Pam Thompson, Vinita Kusupati, Sairam Parthasarathy</t>
+          <t>Raichel M. Alex, Shahrokh Javaheri, Rami Khayat, James C. Fang, Ruckshanda Majid, Sanjay R. Patel, Sairam Parthasarathy, Garrick C. Stewart, Sara Op de Beeck, Stephanie A. Marvin, L. Gell, Justin Vader, Luqi Chi, Mihaela Teodorescu, Phyllis Zee, M. Safwan Badr, K. Haffey, D. Mann, Andrew Wellman, Reena Mehra, Neomi Shah, Babak Mokhlesi, Eleanor T. Lewis, Abraham Weizman, Susan Redline, S.A. Sands</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Division of Pulmonary, Allergy, Critical Care &amp; Sleep Medicine, Department of Medicine, University of Arizona, Tucson, AZ, United States; Department of Informatics Technology, Banner Health, Phoenix, AZ, United States; Division of Pulmonary, Allergy, Critical Care &amp; Sleep Medicine, Department of Medicine, University of Arizona, Tucson, AZ, United States; Department of Biomedical Informatics, University of Arizona College of Medicine, Phoenix, AZ, United States; Department of Medical Informatics, Banner Health, Phoenix, AZ, United States; Department of Informatics Technology, Banner Health, Phoenix, AZ, United States; Department of Academic and Facilities Research, Banner Health, Phoenix, AZ, United States; Division of General Internal Medicine, Department of Medicine, University of Arizona, Tucson, AZ, United States; Division of Pulmonary, Allergy, Critical Care &amp; Sleep Medicine, Department of Medicine, University of Arizona, Tucson, AZ, United States</t>
+          <t>Division of Sleep &amp; Circadian Disorders, Brigham and Women's Hospital, Boston, MA, United States; Division of Medicine, The Ohio State University, Columbus, OH, United States; Division of Pulmonary and Critical Care Medicine, University of California, Irvine, CA, United States; Division of Cardiology, University of Utah, Salt Lake City, UT, United States; Divisions of Pulmonary, Critical Care and Sleep Medicine, McGovern Medical School, The University of Texas Health Science Center, Houston, TX, United States; PACCM Division, Univ of Pittsburgh Medical Center, Pittsburgh, PA, United States; Arizona Hlth Sci Center, Univ of  Arizona, Tucson, AZ, United States; Division of Cardiology, Brigham and Women's Hospital, Boston, MA, United States; Translational Neurosciences - ENT, University of Antwerp, Wilrijk,  Belgium; Division of Sleep &amp; Circadian Disorders, Brigham and Women's Hospital, Boston, MA, United States; Division of Sleep &amp; Circadian Disorders, Brigham and Women's Hospital, Boston, MA, United States; Department of Cardiology, Washington University School of Medicine, St Louis, MO, United States; Department of Neurology, Washington University School of Medicine, St. Louis, MO, United States; Univ of Wisconsin - Madison Sch of Med, Madison, WI, United States; Center for Circadian and Sleep Medicine, Department of Neurology, Northwestern University Feinberg School of Medicine, Chicago, IL, United States; Div of Pulm Crit Care and Sleep Med, Wayne State University, Detroit, MI, United States; Saint Luke’s Mid America Heart Institute, Kansas City, MO, United States; The University of Queensland, Brisbane,  Australia; Division of Sleep &amp; Circadian Disorders, Brigham and Women's Hospital, Boston, MA, United States; Cleveland Clinic Lerner College of Medicine, Case Western Reserve University, Cleveland, OH, United States; at Mount Sinai Division of Pulmonary, Critical Care, and Sleep Medicine, Icahn School of Medicine, New York, NY, United States; Division of Pulmonary, Critical Care, Sleep Medicine, Rush University Medical Center, Chicago, IL, United States; Division of Cardiovascular Medicine and Cardiovascular Institute, Stanford University School of Medicine, Palo Alto, CA, United States; Division of Cardiovascular Medicine, The Ohio State University, Columbus, OH, United States; Division of Sleep &amp; Circadian Disorders, Brigham and Women's Hospital, Boston, MA, United States; Division of Sleep &amp; Circadian Disorders, Brigham and Women's Hospital, Boston, MA, United States</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385855925</t>
+          <t>https://openalex.org/W4367607684</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Disparities in outcomes of COVID-19 hospitalizations in native American individuals</t>
+          <t>Identifying Central Versus Obstructive Sleep Apnea in Patients With Heart Failure</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2023-08-15</t>
+          <t>2023-05-01</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Frontiers in Public Health</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Frontiers Media</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3389/fpubh.2023.1220582</t>
+          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a6184</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1996,12 +1996,12 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37649785</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3389/fpubh.2023.1220582</t>
+          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a6184</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -2013,42 +2013,42 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sairam Parthasarathy, Michael Arzt, Shahrokh Javaheri</t>
+          <t>Shivali Patel, Wojciech Zaręba, Raymond L. Woosley, Karolina Perez, Imran Patel, Xiaojuan Xia, Chris Wendel, Jerod Miller, Stuart F. Quan, Sairam Parthasarathy</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>University of Arizona Health Sciences, Center for Sleep, Circadian, and Neuroscience Research, University of Arizona, Tucson, AZ; Department of Internal Medicine II, University Hospital Regensburg, Germany; Division of Pulmonary and Sleep, Bethesda North Hospital, Cincinnati, Ohio</t>
+          <t>University of Arizona; University of Rochester Medical Center; University of Arizona College of Medicine-Phoenix; University of Arizona; University of Arizona; University of Rochester Medical Center; University of Arizona; University of Arizona; University of Arizona; University of Arizona</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387408632</t>
+          <t>https://openalex.org/W4378610507</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>A call for precision medicine: Facing the challenge of sleep-disordered breathing in heart failure</t>
+          <t>0485 The clinical utility of echocardiography in identifying patients with heart failure at a single academic sleep center</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2023-12-01</t>
+          <t>2023-05-01</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Sleep Medicine</t>
+          <t>SLEEP</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>Oxford University Press</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.sleep.2023.10.002</t>
+          <t>https://doi.org/10.1093/sleep/zsad077.0485</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2058,12 +2058,12 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -2083,12 +2083,12 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37844544</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.sleep.2023.10.002</t>
+          <t>https://doi.org/10.1093/sleep/zsad077.0485</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -2100,42 +2100,42 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Stacey L. Simon, Judith J. Stephenson, Kevin Haynes, Elaine Kennedy, Gilles Frydman, Adam Amdur, Sairam Parthasarathy</t>
+          <t>Shivali Patel, Wojciech Zaręba, Raymond L. Woosley, Karolina Perez, Xiaojuan Xia, Chris Wendel, Imran Patel, Jerod Miller, Stuart F. Quan, Sairam Parthasarathy</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>University of Colorado Anschutz Medical Campus, Aurora, CO.; Carelon Research, Wilmington, DE.; Carelon Research, Wilmington, DE.; Carelon Research, Wilmington, DE.; American Sleep Apnea Association, Washington, DC.; American Sleep Apnea Association, Washington, DC.; University of Arizona College of Medicine, Tucson, AZ.</t>
+          <t>University of Arizona; University of Rochester Medical Center; University of Arizona College of Medicine-Phoenix; University of Arizona; University of Rochester Medical Center; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387949903</t>
+          <t>https://openalex.org/W4378610581</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>The lived experience of positive airway pressure therapy in patients with obstructive sleep apnea across the lifespan: a qualitative study</t>
+          <t>0441 Positive airway pressure therapy associated changes in ventricular repolarization in patients with heart failure</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2023-10-26</t>
+          <t>2023-05-01</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Journal of Clinical Sleep Medicine</t>
+          <t>SLEEP</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>American Academy of Sleep Medicine</t>
+          <t>Oxford University Press</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5664/jcsm.10890</t>
+          <t>https://doi.org/10.1093/sleep/zsad077.0441</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2145,12 +2145,12 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -2170,12 +2170,12 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37882633</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5664/jcsm.10890</t>
+          <t>https://doi.org/10.1093/sleep/zsad077.0441</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
@@ -2187,42 +2187,42 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Amit Arora, Wojciech Zaręba, Raymond L. Woosley, Yann C. Klimentidis, Imran Patel, Stuart F. Quan, Christopher Wendel, Fadi Shamoun, Stefano Guerra, Sairam Parthasarathy, Shivali Patel</t>
+          <t>Daniel Combs, Jamie O. Edgin, Chiu‐Hsieh Hsu, Kenneth Bottrill, Hailey Van Vorce, Blake Gerken, Daniel S. Matloff, Sicily La Rue, Lucia Esparza, Sairam Parthasarathy</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>University of Arizona, UNITED STATES; University of Rochester Medical Center, UNITED STATES; The University of Arizona, UNITED STATES; The University of Arizona, UNITED STATES; Division of Pulmonary, Allergy, Critical Care Medicine and Sleep Medicine, University of Arizona College of Medicine – Tucson; UAHS Center for Sleep and Circadian Sciences, University of Arizona; Division of Pulmonary, Allergy, Critical Care Medicine and Sleep Medicine, University of Arizona College of Medicine – Tucson; UAHS Center for Sleep and Circadian Sciences, University of Arizona; UAHS Center for Sleep and Circadian Sciences, University of Arizona; Mayo Clinic Arizona; The University of Arizona, UNITED STATES; Division of Pulmonary, Allergy, Critical Care Medicine and Sleep Medicine, University of Arizona College of Medicine – Tucson; UAHS Center for Sleep and Circadian Sciences, University of Arizona; Division of Pulmonary, Allergy, Critical Care Medicine and Sleep Medicine, University of Arizona College of Medicine – Tucson; UAHS Center for Sleep and Circadian Sciences, University of Arizona</t>
+          <t>University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4388485265</t>
+          <t>https://openalex.org/W4378611719</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Genetic QT Score and Sleep Apnea as Predictors of Sudden Cardiac Death in the UK Biobank</t>
+          <t>0796 Safety and efficacy of the combination of atomoxetine and oxybutynin for OSA treatment in children with Down Syndrome</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2023-11-08</t>
+          <t>2023-05-01</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>medRxiv (Cold Spring Harbor Laboratory)</t>
+          <t>SLEEP</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Cold Spring Harbor Laboratory</t>
+          <t>Oxford University Press</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1101/2023.11.07.23298237</t>
+          <t>https://doi.org/10.1093/sleep/zsad077.0796</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2232,12 +2232,12 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2257,12 +2257,12 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37986981</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1101/2023.11.07.23298237</t>
+          <t>https://doi.org/10.1093/sleep/zsad077.0796</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
@@ -2274,37 +2274,42 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sairam Parthasarathy</t>
+          <t>Andrew Tubbs, Jordan F. Karp, Sairam Parthasarathy, Michael L. Perlis, Michael Grandner</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>University of Arizona College of Medicine - Tucson; University of Arizona College of Medicine - Tucson; University of Arizona; Behavioral Sleep Medicine Program, University of Pennsylvania; Sleep &amp; Health Research Program, Behavioral Sleep Medicine Clinic, University of Arizona College of Medicine</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4388569130</t>
+          <t>https://openalex.org/W4378611750</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Toxins in Disease Development</t>
+          <t>0926 Teaching Medical Students About Insomnia: Early Results of a Brief Lecture for Third Year Medical Students</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2023-11-10</t>
+          <t>2023-05-01</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>CRC Press eBooks</t>
+          <t>SLEEP</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Oxford University Press</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1201/9781032711881-28</t>
+          <t>https://doi.org/10.1093/sleep/zsad077.0926</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2314,12 +2319,12 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2344,69 +2349,74 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1201/9781032711881-28</t>
+          <t>https://doi.org/10.1093/sleep/zsad077.0926</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>book-chapter</t>
+          <t>article</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sairam Parthasarathy</t>
+          <t>Shivali Patel, Michael R. Erwin, Richard G. Olmstead, Girardin Jean–Louis, Sairam Parthasarathy, Shawn D. Youngstedt</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Division of Pulmonary, Allergy, Critical Care Medicine and Sleep Medicine, University of Arizona, UAHS Center for Sleep and Circadian Sciences, Tucson, Arizona, United States; Cousins Center for Psychoneuroimmunology, Semel Institute for Neuroscience and Human Behavior, and Department of Psychiatry and Biobehavioral Sciences, David Geffen School of Medicine, University of California, Los Angeles, California, United States; Cousins Center for Psychoneuroimmunology, Semel Institute for Neuroscience and Human Behavior, and Department of Psychiatry and Biobehavioral Sciences, David Geffen School of Medicine, University of California, Los Angeles, California, United States; Department of Psychiatry, NYU Grossman School of Medicine, New York, New York, United States; Division of Pulmonary, Allergy, Critical Care Medicine and Sleep Medicine, University of Arizona, UAHS Center for Sleep and Circadian Sciences, Tucson, Arizona, United States; Edson College of Nursing and Health Innovation, Arizona State University, Phoenix, Arizona, United States</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4388569460</t>
+          <t>https://openalex.org/W4383316554</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Enzymes in Disease Development</t>
+          <t>Comparisons of Sleep, Demographics, and Health-Related Variables in Older Long and Average Duration Sleepers</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2023-11-10</t>
+          <t>2023-06-01</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>CRC Press eBooks</t>
+          <t>Sleep Science</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Brazilian Association of Sleep and Latin American Federation of Sleep Societies</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1201/9781032711881-27</t>
+          <t>https://doi.org/10.1055/s-0043-1770804</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by-nc-nd</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>gold</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>en</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -2421,69 +2431,74 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37425974</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1201/9781032711881-27</t>
+          <t>https://doi.org/10.1055/s-0043-1770804</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>book-chapter</t>
+          <t>article</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sairam Parthasarathy</t>
+          <t>Saif Mashaqi, Anas Rihawi, Pooja Rangan, Katherine Ho, Mateen Khokhar, Sonia Helmick, Yazan Ashouri, Daniel Combs, Iman Ghaderi, Sairam Parthasarathy</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Center for Sleep and Circadian Sciences, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Pulmonary, Critical Care, Allergy and Sleep Medicine, University of Arizona College of Medicine, Tucson, AZ, United States; Department of Internal Medicine, The University of Arizona College of Medicine Phoenix, Phoenix, AZ, United States; Division of Pulmonary and Critical Care Medicine, Department of Medicine, Oregon Health and Science University, Portland, OR, United States; Department of Internal Medicine, The University of Arizona College of Medicine Phoenix, Phoenix, AZ, United States; Department of Medicine, Banner University Medical Center Phoenix, Phoenix, AZ, United States; Department of General Surgery, Johns Hopkins University School of Medicine, Baltimore, MD, United States; Department of Internal Medicine, Dignity Health Medical Group St. Joseph's, Phoenix, AZ, United States; Department of Pulmonary and Sleep Medicine, Tucson VA Medical Center, Tucson, AZ, United States; Department of Neurology, St. Vincent Medical Center, Toledo, OH, United States; Center for Sleep and Circadian Sciences, University of Arizona Health Sciences, Tucson, AZ, United States; Section of Minimally Invasive, Robotic and Bariatric Surgery, Department of Surgery, University of Arizona College of Medicine, Tucson, AZ, United States; Center for Sleep and Circadian Sciences, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Pulmonary, Critical Care, Allergy and Sleep Medicine, University of Arizona College of Medicine, Tucson, AZ, United States</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4388574132</t>
+          <t>https://openalex.org/W4385515697</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Principles of Plant Disease Management</t>
+          <t>The impact of bariatric surgery on breathing-related polysomnography parameters—Updated systematic review and meta-analysis</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2023-11-10</t>
+          <t>2023-08-03</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>CRC Press eBooks</t>
+          <t>Frontiers in Sleep</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Frontiers Media</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1201/9781032711881-33</t>
+          <t>https://doi.org/10.3389/frsle.2023.1212936</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>gold</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2508,64 +2523,69 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1201/9781032711881-33</t>
+          <t>https://doi.org/10.3389/frsle.2023.1212936</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>book-chapter</t>
+          <t>article</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sairam Parthasarathy</t>
+          <t>Christian Bime, Ying Wang, Gordon Carr, Dennis Swearingen, Sherri Kou, Pam Thompson, Vinita Kusupati, Sairam Parthasarathy</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Division of Pulmonary, Allergy, Critical Care &amp; Sleep Medicine, Department of Medicine, University of Arizona, Tucson, AZ, United States; Department of Informatics Technology, Banner Health, Phoenix, AZ, United States; Division of Pulmonary, Allergy, Critical Care &amp; Sleep Medicine, Department of Medicine, University of Arizona, Tucson, AZ, United States; Department of Biomedical Informatics, University of Arizona College of Medicine, Phoenix, AZ, United States; Department of Medical Informatics, Banner Health, Phoenix, AZ, United States; Department of Informatics Technology, Banner Health, Phoenix, AZ, United States; Department of Academic and Facilities Research, Banner Health, Phoenix, AZ, United States; Division of General Internal Medicine, Department of Medicine, University of Arizona, Tucson, AZ, United States; Division of Pulmonary, Allergy, Critical Care &amp; Sleep Medicine, Department of Medicine, University of Arizona, Tucson, AZ, United States</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4388574248</t>
+          <t>https://openalex.org/W4385855925</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Plant Growth Regulators in Disease Development</t>
+          <t>Disparities in outcomes of COVID-19 hospitalizations in native American individuals</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2023-11-10</t>
+          <t>2023-08-15</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>CRC Press eBooks</t>
+          <t>Frontiers in Public Health</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Frontiers Media</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1201/9781032711881-29</t>
+          <t>https://doi.org/10.3389/fpubh.2023.1220582</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>gold</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2585,59 +2605,59 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37649785</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1201/9781032711881-29</t>
+          <t>https://doi.org/10.3389/fpubh.2023.1220582</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>book-chapter</t>
+          <t>article</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Kamal Sumar, Laura Blue, Gina Fatahi, Atiq ur Rehman Bhatti, Mehek Sumar, Stéphanie Alvarez, Pedro Cons, Nathalie Valencia, Zachary Williams, Sairam Parthasarathy, Chyke A. Doubeni</t>
+          <t>Saif Mashaqi, Michael William, Stuart F. Quan, Daniel Combs, Lauren Estep, Shivali Patel, Jyotsna Sahni, Sairam Parthasarathy</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Adelante Healthcare; Providertech LLC; Ohio State University; Mayo Clinic; University of California San Diego; Adelante Healthcare; Adelante Healthcare; Adelante Healthcare; Adelante Healthcare; University of Arizona; Ohio State University</t>
+          <t>Department of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona College of Medicine, Tucson, AZ, United States; Department of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona College of Medicine, Tucson, AZ, United States; Department of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona College of Medicine, Tucson, AZ, United States; Division of Sleep and Circadian Disorders, Division of Sleep Medicine, Brigham and Women's Hospital, Harvard Medical School, Boston, MA, United States; Division of Pulmonary and Sleep Medicine, Department of Pediatrics, UAHS Center for Sleep and Circadian Sciences, University of Arizona, Tucson, AZ, United States; Department of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona College of Medicine, Tucson, AZ, United States; Department of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona College of Medicine, Tucson, AZ, United States; Department of Sleep Medicine, Swan Sleep Medicine, Tucson, AZ, United States; Department of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona College of Medicine, Tucson, AZ, United States</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4389573484</t>
+          <t>https://openalex.org/W4386513413</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>The Effect of Adding Physician Recommendation in Digitally-Enabled Outreach for COVID-19 Vaccination in Socially/Economically Disadvantaged Populations Subtitle: A Randomized Controlled Trial</t>
+          <t>Case report: A case of complete resolution of obstructive and central sleep apnea with Cheyne Stokes breathing in a patient with heart failure 60 days post-left ventricular assist device implantation</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2023-12-11</t>
+          <t>2023-09-07</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Research Square (Research Square)</t>
+          <t>Frontiers in Sleep</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Research Square (United States)</t>
+          <t>Frontiers Media</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://doi.org/10.21203/rs.3.rs-3604972/v1</t>
+          <t>https://doi.org/10.3389/frsle.2023.1228038</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2647,12 +2667,12 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>gold</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2672,12 +2692,12 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/38168293</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>https://doi.org/10.21203/rs.3.rs-3604972/v1</t>
+          <t>https://doi.org/10.3389/frsle.2023.1228038</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
@@ -2689,47 +2709,47 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Daniel E. Palomares, Phat L. Tran, Catherine Jerman, Moe Momayez, Pierre Deymier, Jawaad Sheriff, Danny Bluestein, Sairam Parthasarathy, Marvin J. Slepian</t>
+          <t>Sairam Parthasarathy</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Arizona Center for Accelerated Biomedical Innovation, University of Arizona, Tucson, AZ 85724, USA; Department of Biomedical Engineering, University of Arizona, Tucson, AZ 85724, USA; Arizona Center for Accelerated Biomedical Innovation, University of Arizona, Tucson, AZ 85724, USA; Department of Medicine, University of Arizona, Tucson, AZ 85724, USA; Department of Medicine, University of Arizona, Tucson, AZ 85724, USA; Arizona Center for Accelerated Biomedical Innovation, University of Arizona, Tucson, AZ 85724, USA; Department of Mining &amp; Geological Engineering, University of Arizona, Tucson, AZ 85724, USA; Arizona Center for Accelerated Biomedical Innovation, University of Arizona, Tucson, AZ 85724, USA; Department of Materials Science &amp; Engineering, University of Arizona, Tucson, AZ 85724, USA; Department of Biomedical Engineering, Stony Brook University, Stony Brook, NY 11794, USA; Department of Biomedical Engineering, Stony Brook University, Stony Brook, NY 11794, USA; Arizona Center for Accelerated Biomedical Innovation, University of Arizona, Tucson, AZ 85724, USA; Department of Medicine, University of Arizona, Tucson, AZ 85724, USA; Health Sciences Center for Sleep and Circadian Sciences, University of Arizona, Tucson, AZ 85724, USA; Arizona Center for Accelerated Biomedical Innovation, University of Arizona, Tucson, AZ 85724, USA; Department of Biomedical Engineering, Stony Brook University, Stony Brook, NY 11794, USA; Department of Biomedical Engineering, University of Arizona, Tucson, AZ 85724, USA; Department of Medicine, University of Arizona, Tucson, AZ 85724, USA</t>
+          <t>University of Arizona Health Sciences, Center for Sleep, Circadian, and Neuroscience Research, University of Arizona, Tucson, Arizona</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4389626846</t>
+          <t>https://openalex.org/W4386529558</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Vibro-Acoustic Platelet Activation: An Additive Mechanism of Prothrombosis with Applicability to Snoring and Obstructive Sleep Apnea</t>
+          <t>Flatten the curve: bending the trajectory of respiratory disease–related mortalityCommentary on Du M, Liu M, Liu J. U-shaped association between sleep duration and the risk of respiratory diseases mortality: a large prospective cohort study from UK Biobank. &lt;i&gt;J Clin Sleep Med&lt;/i&gt; . 2023;19(11):1923–1932. doi:10.5664/jcsm.10732</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2023-12-12</t>
+          <t>2023-11-01</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Bioengineering</t>
+          <t>Journal of Clinical Sleep Medicine</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Multidisciplinary Digital Publishing Institute</t>
+          <t>American Academy of Sleep Medicine</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/bioengineering10121414</t>
+          <t>https://doi.org/10.5664/jcsm.10826</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2739,7 +2759,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2759,12 +2779,12 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/38136005</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37681362</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/bioengineering10121414</t>
+          <t>https://doi.org/10.5664/jcsm.10826</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
@@ -2776,42 +2796,42 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sairam Parthasarathy, Jerry Zhang, Danielle Hyman, James Doherty, Ragy Saad, Benjamin D. Fox, Nell Marshall, Gregory Scott Parks</t>
+          <t>Sairam Parthasarathy, Michael Arzt, Shahrokh Javaheri</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>University of Arizona, Tucson, AZ, USA; Jazz Pharmaceuticals, Palo Alto, CA, USA; Jazz Pharmaceuticals, Palo Alto, CA, USA; Jazz Pharmaceuticals, Palo Alto, CA, USA; Jazz Pharmaceuticals, Palo Alto, CA, USA; Evidation Health, San Mateo, CA, USA; Evidation Health, San Mateo, CA, USA; Axsome Therapeutics, New York, NY, USA; Jazz Pharmaceuticals, Palo Alto, CA, USA</t>
+          <t>University of Arizona Health Sciences, Center for Sleep, Circadian, and Neuroscience Research, University of Arizona, Tucson, AZ; Department of Internal Medicine II, University Hospital Regensburg, Germany; Division of Pulmonary and Sleep, Bethesda North Hospital, Cincinnati, Ohio</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4365511209</t>
+          <t>https://openalex.org/W4387408632</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Comorbidities and Presenting Symptoms in a Real-World Population With Obstructive Sleep Apnea</t>
+          <t>A call for precision medicine: Facing the challenge of sleep-disordered breathing in heart failure</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2023-04-01</t>
+          <t>2023-12-01</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>CNS Spectrums</t>
+          <t>Sleep Medicine</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Cambridge University Press</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1017/s1092852923001554</t>
+          <t>https://doi.org/10.1016/j.sleep.2023.10.002</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2821,12 +2841,12 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2846,12 +2866,12 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37844544</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1017/s1092852923001554</t>
+          <t>https://doi.org/10.1016/j.sleep.2023.10.002</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
@@ -2863,42 +2883,42 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Sairam Parthasarathy, Jerry Zhang, Danielle Hyman, James Doherty, Ragy Saad, Benjamin D. Fox, Nell Marshall, Gregory Scott Parks</t>
+          <t>Stacey L. Simon, Judith J. Stephenson, Kevin Haynes, Elaine Kennedy, Gilles Frydman, Adam Amdur, Sairam Parthasarathy</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>University of Arizona, Tucson, AZ, USA; Jazz Pharmaceuticals, Palo Alto, CA, USA; Jazz Pharmaceuticals, Palo Alto, CA, USA; Jazz Pharmaceuticals, Palo Alto, CA, USA; Jazz Pharmaceuticals, Palo Alto, CA, USA; Evidation Health, San Mateo, CA, USA; Evidation Health, San Mateo, CA, USA; Axsome Therapeutics, New York, NY, USA; Jazz Pharmaceuticals, Palo Alto, CA, USA</t>
+          <t>University of Colorado Anschutz Medical Campus, Aurora, CO.; Carelon Research, Wilmington, DE.; Carelon Research, Wilmington, DE.; Carelon Research, Wilmington, DE.; American Sleep Apnea Association, Washington, DC.; American Sleep Apnea Association, Washington, DC.; University of Arizona College of Medicine, Tucson, AZ.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4365511230</t>
+          <t>https://openalex.org/W4387949903</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Excessive Daytime Sleepiness in a Real-World Study of Participants With OSA With or Without Comorbid Depression</t>
+          <t>The lived experience of positive airway pressure therapy in patients with obstructive sleep apnea across the lifespan: a qualitative study</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2023-04-01</t>
+          <t>2023-10-26</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>CNS Spectrums</t>
+          <t>Journal of Clinical Sleep Medicine</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Cambridge University Press</t>
+          <t>American Academy of Sleep Medicine</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1017/s1092852923001566</t>
+          <t>https://doi.org/10.5664/jcsm.10890</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2908,12 +2928,12 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2933,12 +2953,12 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37882633</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1017/s1092852923001566</t>
+          <t>https://doi.org/10.5664/jcsm.10890</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
@@ -2950,42 +2970,42 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Raichel M. Alex, Shahrokh Javaheri, Rami Khayat, James C. Fang, Ruckshanda Majid, Sanjay R. Patel, Sairam Parthasarathy, Garrick C. Stewart, Sara Op de Beeck, Stephanie A. Marvin, L. Gell, Justin Vader, Luqi Chi, Mihaela Teodorescu, Phyllis Zee, M. Safwan Badr, K. Haffey, D. Mann, Andrew Wellman, Reena Mehra, Neomi Shah, Babak Mokhlesi, Eleanor T. Lewis, Abraham Weizman, Susan Redline, S.A. Sands</t>
+          <t>Maria Sans-Fuentes, Lidia Azurdia Sierra, Nelly Kazan Sancho Cruz, Victoria Rubio, Karen Lutrick, Kathryn Hamm, Elizabeth Connick, Puneet Shroff, Dean Billheimer, Ronald B. Sorensen, Alicia Dinsmore, Wendy Wolfersteig, Stephanie L. Ayers, Janko Nikolich‐Žugich, Chyke A. Doubeni, Jon C. Tilburt, Cecilia Rosales, Francisco Moreno, Daniel Derksen, Sabrina Oesterle, Samantha Sabo, Sairam Parthasarathy</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Division of Sleep &amp; Circadian Disorders, Brigham and Women's Hospital, Boston, MA, United States; Division of Medicine, The Ohio State University, Columbus, OH, United States; Division of Pulmonary and Critical Care Medicine, University of California, Irvine, CA, United States; Division of Cardiology, University of Utah, Salt Lake City, UT, United States; Divisions of Pulmonary, Critical Care and Sleep Medicine, McGovern Medical School, The University of Texas Health Science Center, Houston, TX, United States; PACCM Division, Univ of Pittsburgh Medical Center, Pittsburgh, PA, United States; Arizona Hlth Sci Center, Univ of  Arizona, Tucson, AZ, United States; Division of Cardiology, Brigham and Women's Hospital, Boston, MA, United States; Translational Neurosciences - ENT, University of Antwerp, Wilrijk,  Belgium; Division of Sleep &amp; Circadian Disorders, Brigham and Women's Hospital, Boston, MA, United States; Division of Sleep &amp; Circadian Disorders, Brigham and Women's Hospital, Boston, MA, United States; Department of Cardiology, Washington University School of Medicine, St Louis, MO, United States; Department of Neurology, Washington University School of Medicine, St. Louis, MO, United States; Univ of Wisconsin - Madison Sch of Med, Madison, WI, United States; Center for Circadian and Sleep Medicine, Department of Neurology, Northwestern University Feinberg School of Medicine, Chicago, IL, United States; Div of Pulm Crit Care and Sleep Med, Wayne State University, Detroit, MI, United States; Saint Luke’s Mid America Heart Institute, Kansas City, MO, United States; The University of Queensland, Brisbane,  Australia; Division of Sleep &amp; Circadian Disorders, Brigham and Women's Hospital, Boston, MA, United States; Cleveland Clinic Lerner College of Medicine, Case Western Reserve University, Cleveland, OH, United States; at Mount Sinai Division of Pulmonary, Critical Care, and Sleep Medicine, Icahn School of Medicine, New York, NY, United States; Division of Pulmonary, Critical Care, Sleep Medicine, Rush University Medical Center, Chicago, IL, United States; Division of Cardiovascular Medicine and Cardiovascular Institute, Stanford University School of Medicine, Palo Alto, CA, United States; Division of Cardiovascular Medicine, The Ohio State University, Columbus, OH, United States; Division of Sleep &amp; Circadian Disorders, Brigham and Women's Hospital, Boston, MA, United States; Division of Sleep &amp; Circadian Disorders, Brigham and Women's Hospital, Boston, MA, United States</t>
+          <t>Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4367607684</t>
+          <t>https://openalex.org/W4388518244</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Identifying Central Versus Obstructive Sleep Apnea in Patients With Heart Failure</t>
+          <t>Temporal Changes in Vaccine-Specific Willingness Across Race/Ethnicity Following Serious Adverse Event Reports</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2023-05-01</t>
+          <t>2023-11-09</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>American Journal of Public Health</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>American Public Health Association</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a6184</t>
+          <t>https://doi.org/10.2105/ajph.2023.307484</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -3020,12 +3040,12 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37944076</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a6184</t>
+          <t>https://doi.org/10.2105/ajph.2023.307484</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
@@ -3037,57 +3057,52 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Shivali Patel, Michael R. Erwin, Richard G. Olmstead, Girardin Jean‐Louis, Sairam Parthasarathy, Shawn D. Youngstedt</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Division of Pulmonary, Allergy, Critical Care Medicine and Sleep Medicine, University of Arizona, UAHS Center for Sleep and Circadian Sciences, Tucson, Arizona, United States; Cousins Center for Psychoneuroimmunology, Semel Institute for Neuroscience and Human Behavior, and Department of Psychiatry and Biobehavioral Sciences, David Geffen School of Medicine, University of California, Los Angeles, California, United States; Cousins Center for Psychoneuroimmunology, Semel Institute for Neuroscience and Human Behavior, and Department of Psychiatry and Biobehavioral Sciences, David Geffen School of Medicine, University of California, Los Angeles, California, United States; Department of Psychiatry, NYU Grossman School of Medicine, New York, New York, United States; Division of Pulmonary, Allergy, Critical Care Medicine and Sleep Medicine, University of Arizona, UAHS Center for Sleep and Circadian Sciences, Tucson, Arizona, United States; Edson College of Nursing and Health Innovation, Arizona State University, Phoenix, Arizona, United States</t>
+          <t>Sairam Parthasarathy</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4383316554</t>
+          <t>https://openalex.org/W4388569130</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Comparisons of Sleep, Demographics, and Health-Related Variables in Older Long and Average Duration Sleepers</t>
+          <t>Toxins in Disease Development</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2023-06-01</t>
+          <t>2023-11-10</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Sleep Science</t>
+          <t>CRC Press eBooks</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Brazilian Association of Sleep and Latin American Federation of Sleep Societies</t>
+          <t>Informa</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1055/s-0043-1770804</t>
+          <t>https://doi.org/10.1201/9781032711881-28</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>cc-by-nc-nd</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -3107,59 +3122,54 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37425974</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1055/s-0043-1770804</t>
+          <t>https://doi.org/10.1201/9781032711881-28</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>article</t>
+          <t>book-chapter</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Daniel Combs, Jamie O. Edgin, Chiu‐Hsieh Hsu, Kenneth Bottrill, Hailey Van Vorce, Blake Gerken, Daniel S. Matloff, Sicily La Rue, Sairam Parthasarathy</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>UAHS Center for Sleep &amp;amp; Circadian Sciences, University of Arizona, Tucson, Arizona; Department of Psychology, University of Arizona, Tucson, Arizona; Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson, Arizona; Department of Psychology, University of Arizona, Tucson, Arizona; Department of Psychology, University of Arizona, Tucson, Arizona; UAHS Center for Sleep &amp;amp; Circadian Sciences, University of Arizona, Tucson, Arizona; UAHS Center for Sleep &amp;amp; Circadian Sciences, University of Arizona, Tucson, Arizona; UAHS Center for Sleep &amp;amp; Circadian Sciences, University of Arizona, Tucson, Arizona; UAHS Center for Sleep &amp;amp; Circadian Sciences, University of Arizona, Tucson, Arizona</t>
+          <t>Sairam Parthasarathy</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385684537</t>
+          <t>https://openalex.org/W4388569460</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>The combination of atomoxetine and oxybutynin for the treatment of obstructive sleep apnea in children with Down syndrome</t>
+          <t>Enzymes in Disease Development</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2023-12-01</t>
+          <t>2023-11-10</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Journal of Clinical Sleep Medicine</t>
+          <t>CRC Press eBooks</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>American Academy of Sleep Medicine</t>
+          <t>Informa</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5664/jcsm.10764</t>
+          <t>https://doi.org/10.1201/9781032711881-27</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -3179,7 +3189,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -3194,74 +3204,69 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37555595</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5664/jcsm.10764</t>
+          <t>https://doi.org/10.1201/9781032711881-27</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>article</t>
+          <t>book-chapter</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Saif Mashaqi, Michael William, Stuart F. Quan, Daniel Combs, Lauren Estep, Shivali Patel, Jyotsna Sahni, Sairam Parthasarathy</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Department of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona College of Medicine, Tucson, AZ, United States; Department of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona College of Medicine, Tucson, AZ, United States; Department of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona College of Medicine, Tucson, AZ, United States; Division of Sleep and Circadian Disorders, Division of Sleep Medicine, Brigham and Women's Hospital, Harvard Medical School, Boston, MA, United States; Division of Pulmonary and Sleep Medicine, Department of Pediatrics, UAHS Center for Sleep and Circadian Sciences, University of Arizona, Tucson, AZ, United States; Department of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona College of Medicine, Tucson, AZ, United States; Department of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona College of Medicine, Tucson, AZ, United States; Department of Sleep Medicine, Swan Sleep Medicine, Tucson, AZ, United States; Department of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona College of Medicine, Tucson, AZ, United States</t>
+          <t>Sairam Parthasarathy</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4386513413</t>
+          <t>https://openalex.org/W4388574132</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Case report: A case of complete resolution of obstructive and central sleep apnea with Cheyne Stokes breathing in a patient with heart failure 60 days post-left ventricular assist device implantation</t>
+          <t>Principles of Plant Disease Management</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2023-09-07</t>
+          <t>2023-11-10</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Frontiers in Sleep</t>
+          <t>CRC Press eBooks</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Frontiers Media</t>
+          <t>Informa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3389/frsle.2023.1228038</t>
+          <t>https://doi.org/10.1201/9781032711881-33</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -3286,12 +3291,12 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3389/frsle.2023.1228038</t>
+          <t>https://doi.org/10.1201/9781032711881-33</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>article</t>
+          <t>book-chapter</t>
         </is>
       </c>
     </row>
@@ -3301,39 +3306,34 @@
           <t>Sairam Parthasarathy</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>University of Arizona Health Sciences, Center for Sleep, Circadian, and Neuroscience Research, University of Arizona, Tucson, Arizona</t>
-        </is>
-      </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4386529558</t>
+          <t>https://openalex.org/W4388574248</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Flatten the curve: bending the trajectory of respiratory disease–related mortalityCommentary on Du M, Liu M, Liu J. U-shaped association between sleep duration and the risk of respiratory diseases mortality: a large prospective cohort study from UK Biobank. &lt;i&gt;J Clin Sleep Med&lt;/i&gt; . 2023;19(11):1923–1932. doi:10.5664/jcsm.10732</t>
+          <t>Plant Growth Regulators in Disease Development</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2023-11-01</t>
+          <t>2023-11-10</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Journal of Clinical Sleep Medicine</t>
+          <t>CRC Press eBooks</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>American Academy of Sleep Medicine</t>
+          <t>Informa</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5664/jcsm.10826</t>
+          <t>https://doi.org/10.1201/9781032711881-29</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -3343,12 +3343,12 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -3368,59 +3368,59 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37681362</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5664/jcsm.10826</t>
+          <t>https://doi.org/10.1201/9781032711881-29</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>article</t>
+          <t>book-chapter</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Amit Arora, Wojciech Zaręba, Raymond L. Woosley, Yann C. Klimentidis, Imran Patel, Stuart F. Quan, Christopher Wendel, Fadi Shamoun, Stefano Guerra, Sairam Parthasarathy, Shivali Patel</t>
+          <t>Sadia Ghani, Karla Granados, Chloe Wills, Pamela Alfonso‐Miller, Orfeu M. Buxton, John Ruiz, Sairam Parthasarathy, Sanjay R. Patel, P. Alfredo Molina, Azizi Seixas, Girardin Jean-Louis, Michael Grandner</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>University of Arizona; University of Rochester Medical Center; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; Mayo Clinic; University of Arizona; University of Arizona; University of Arizona</t>
+          <t>Department of Psychiatry, University of Arizona, Tucson, USA; Department of Psychiatry, University of Arizona, Tucson, USA; Department of Psychiatry, University of Arizona, Tucson, USA; Northumbria Sleep Research, Northumbria University, Newcastle-upon-Tyne, UK; Department of Biobehavioral Health, The Pennsylvania State University, University Park, Pennsylvania, USA; Department of Psychology, University of Arizona, Tucson, USA; University of Arizona Health Sciences Center for Sleep and Circadian Sciences, University of Arizona, Tucson, USA; Department of Medicine, University of Pittsburgh School of Medicine, Pittsburgh, USA; Mariposa Community Health Center, Nogales, USA; Department of Population Health, and Department of Psychiatry, NYU Langone Health, New York; Department of Psychiatry and Behavioral Sciences and Department of Neurology, The University of Miami Miller School of Medicine Miami, USA; Department of Psychiatry, University of Arizona, Tucson, USA</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387898634</t>
+          <t>https://openalex.org/W4388725008</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Genetic QT Score and Sleep Apnea as Predictors of Sudden Cardiac Death in the UK Biobank</t>
+          <t>Association of Birthplace for Sleep Duration, Sleep Quality, and Sleep Disorder Symptoms, at the US–Mexico Border</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-11-15</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Behavioral Sleep Medicine</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Taylor &amp; Francis</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2139/ssrn.4611498</t>
+          <t>https://doi.org/10.1080/15402002.2023.2279308</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -3430,7 +3430,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3455,12 +3455,12 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37968911</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2139/ssrn.4611498</t>
+          <t>https://doi.org/10.1080/15402002.2023.2279308</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
@@ -3472,57 +3472,57 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Maria Sans-Fuentes, Lidia Azurdia Sierra, Nelly Kazan Sancho Cruz, Victoria Rubio, Karen Lutrick, Kathryn Hamm, Elizabeth Connick, Puneet Shroff, Dean Billheimer, Ronald B. Sorensen, Alicia Dinsmore, Wendy Wolfersteig, Stephanie L. Ayers, Janko Nikolich‐Žugich, Chyke A. Doubeni, Jon C. Tilburt, Cecilia Rosales, Francisco Moreno, Daniel Derksen, Sabrina Oesterle, Samantha Sabo, Sairam Parthasarathy</t>
+          <t>Kamal Sumar, Laura Blue, Gina Fatahi, Atiq ur Rehman Bhatti, Mehek Sumar, Stéphanie Alvarez, Pedro Cons, Nathalie Valencia, Zachary Williams, Sairam Parthasarathy, Chyke A. Doubeni</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...</t>
+          <t>Adelante Healthcare; Providertech LLC; Ohio State University; Mayo Clinic; University of California San Diego; Adelante Healthcare; Adelante Healthcare; Adelante Healthcare; Adelante Healthcare; University of Arizona; Ohio State University</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4388518244</t>
+          <t>https://openalex.org/W4389573484</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Temporal Changes in Vaccine-Specific Willingness Across Race/Ethnicity Following Serious Adverse Event Reports</t>
+          <t>The Effect of Adding Physician Recommendation in Digitally-Enabled Outreach for COVID-19 Vaccination in Socially/Economically Disadvantaged Populations Subtitle: A Randomized Controlled Trial</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2023-11-09</t>
+          <t>2023-12-11</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>American Journal of Public Health</t>
+          <t>Research Square (Research Square)</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>American Public Health Association</t>
+          <t>Research Square (United States)</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2105/ajph.2023.307484</t>
+          <t>https://doi.org/10.21203/rs.3.rs-3604972/v1</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -3542,12 +3542,12 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37944076</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/38168293</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2105/ajph.2023.307484</t>
+          <t>https://doi.org/10.21203/rs.3.rs-3604972/v1</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
@@ -3559,57 +3559,57 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Sadia Ghani, Karla Granados, Chloe Wills, Pamela Alfonso‐Miller, Orfeu M. Buxton, John Ruiz, Sairam Parthasarathy, Sanjay R. Patel, P. Alfredo Molina, Azizi Seixas, Girardin Jean-Louis, Michael Grandner</t>
+          <t>Daniel E. Palomares, Phat L. Tran, Catherine Jerman, Moe Momayez, Pierre Deymier, Jawaad Sheriff, Danny Bluestein, Sairam Parthasarathy, Marvin J. Slepian</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Department of Psychiatry, University of Arizona, Tucson, USA; Department of Psychiatry, University of Arizona, Tucson, USA; Department of Psychiatry, University of Arizona, Tucson, USA; Northumbria Sleep Research, Northumbria University, Newcastle-upon-Tyne, UK; Department of Biobehavioral Health, The Pennsylvania State University, University Park, Pennsylvania, USA; Department of Psychology, University of Arizona, Tucson, USA; University of Arizona Health Sciences Center for Sleep and Circadian Sciences, University of Arizona, Tucson, USA; Department of Medicine, University of Pittsburgh School of Medicine, Pittsburgh, USA; Mariposa Community Health Center, Nogales, USA; Department of Population Health, and Department of Psychiatry, NYU Langone Health, New York; Department of Psychiatry and Behavioral Sciences and Department of Neurology, The University of Miami Miller School of Medicine Miami, USA; Department of Psychiatry, University of Arizona, Tucson, USA</t>
+          <t>Arizona Center for Accelerated Biomedical Innovation, University of Arizona, Tucson, AZ 85724, USA; Department of Biomedical Engineering, University of Arizona, Tucson, AZ 85724, USA; Arizona Center for Accelerated Biomedical Innovation, University of Arizona, Tucson, AZ 85724, USA; Department of Medicine, University of Arizona, Tucson, AZ 85724, USA; Department of Medicine, University of Arizona, Tucson, AZ 85724, USA; Arizona Center for Accelerated Biomedical Innovation, University of Arizona, Tucson, AZ 85724, USA; Department of Mining &amp; Geological Engineering, University of Arizona, Tucson, AZ 85724, USA; Arizona Center for Accelerated Biomedical Innovation, University of Arizona, Tucson, AZ 85724, USA; Department of Materials Science &amp; Engineering, University of Arizona, Tucson, AZ 85724, USA; Department of Biomedical Engineering, Stony Brook University, Stony Brook, NY 11794, USA; Department of Biomedical Engineering, Stony Brook University, Stony Brook, NY 11794, USA; Arizona Center for Accelerated Biomedical Innovation, University of Arizona, Tucson, AZ 85724, USA; Department of Medicine, University of Arizona, Tucson, AZ 85724, USA; Health Sciences Center for Sleep and Circadian Sciences, University of Arizona, Tucson, AZ 85724, USA; Arizona Center for Accelerated Biomedical Innovation, University of Arizona, Tucson, AZ 85724, USA; Department of Biomedical Engineering, Stony Brook University, Stony Brook, NY 11794, USA; Department of Biomedical Engineering, University of Arizona, Tucson, AZ 85724, USA; Department of Medicine, University of Arizona, Tucson, AZ 85724, USA</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4388725008</t>
+          <t>https://openalex.org/W4389626846</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Association of Birthplace for Sleep Duration, Sleep Quality, and Sleep Disorder Symptoms, at the US–Mexico Border</t>
+          <t>Vibro-Acoustic Platelet Activation: An Additive Mechanism of Prothrombosis with Applicability to Snoring and Obstructive Sleep Apnea</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2023-11-15</t>
+          <t>2023-12-12</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Behavioral Sleep Medicine</t>
+          <t>Bioengineering</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Taylor &amp; Francis</t>
+          <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/15402002.2023.2279308</t>
+          <t>https://doi.org/10.3390/bioengineering10121414</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>gold</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3629,12 +3629,12 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37968911</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/38136005</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/15402002.2023.2279308</t>
+          <t>https://doi.org/10.3390/bioengineering10121414</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
